--- a/measurement/daynight.xlsx
+++ b/measurement/daynight.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="too fast so messy" sheetId="1" r:id="rId1"/>
@@ -12,34 +12,62 @@
     <sheet name="alt" sheetId="3" r:id="rId3"/>
     <sheet name="alt2" sheetId="4" r:id="rId4"/>
     <sheet name="lat" sheetId="5" r:id="rId5"/>
+    <sheet name="lattotal" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="solver_adj" localSheetId="5" hidden="1">lattotal!$H$2:$H$9</definedName>
     <definedName name="solver_adj" localSheetId="1" hidden="1">proper!$G$1:$G$3</definedName>
+    <definedName name="solver_cvg" localSheetId="5" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="5" hidden="1">3</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_est" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="5" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="5" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_nwt" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="5" hidden="1">lattotal!$K$2</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">proper!$G$4</definedName>
+    <definedName name="solver_pre" localSheetId="5" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="5" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="5" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="5" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -47,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>noon</t>
   </si>
@@ -132,6 +160,9 @@
   <si>
     <t>Latitude</t>
   </si>
+  <si>
+    <t>diu-trend</t>
+  </si>
 </sst>
 </file>
 
@@ -172,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -181,6 +212,7 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -892,11 +924,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="547643968"/>
-        <c:axId val="547652128"/>
+        <c:axId val="-1141139520"/>
+        <c:axId val="-1141126464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="547643968"/>
+        <c:axId val="-1141139520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -953,12 +985,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="547652128"/>
+        <c:crossAx val="-1141126464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="547652128"/>
+        <c:axId val="-1141126464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1015,7 +1047,1248 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="547643968"/>
+        <c:crossAx val="-1141139520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>lattotal!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lat Temp Mod</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>lattotal!$A$2:$A$160</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="159"/>
+                <c:pt idx="0">
+                  <c:v>6.9000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.219</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.34100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.47499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.77800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.94299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.032</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2230000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.825</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.1549999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.4889999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.8690000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.9089999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.2250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.59</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.9580000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.3150000000000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.6669999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.9969999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.3159999999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.6529999999999996</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.782</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.9790000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.2969999999999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.6310000000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.9720000000000004</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.9889999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.3019999999999996</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.5739999999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.8890000000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.1959999999999997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.548</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.8819999999999997</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.2189999999999994</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.4749999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.6329999999999991</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="0.000">
+                  <c:v>9.6790000000000003</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>10.025</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="0.000">
+                  <c:v>10.103999999999999</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="0.000">
+                  <c:v>10.595000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="0.000">
+                  <c:v>11.032</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="0.000">
+                  <c:v>11.558</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="0.000">
+                  <c:v>12.06</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="0.000">
+                  <c:v>12.57</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="0.000">
+                  <c:v>13.103</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="0.000">
+                  <c:v>13.654999999999999</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="0.000">
+                  <c:v>14.05</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>14.44</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="0.000">
+                  <c:v>14.525</c:v>
+                </c:pt>
+                <c:pt idx="56" formatCode="0.000">
+                  <c:v>14.904999999999999</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="0.000">
+                  <c:v>15.315</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="0.000">
+                  <c:v>15.975</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="0.000">
+                  <c:v>16.763999999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>16.783999999999999</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="0.000">
+                  <c:v>17.504000000000001</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="0.000">
+                  <c:v>18.689</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="0.000">
+                  <c:v>19.318000000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>19.616</c:v>
+                </c:pt>
+                <c:pt idx="65" formatCode="0.000">
+                  <c:v>20.038</c:v>
+                </c:pt>
+                <c:pt idx="66" formatCode="0.000">
+                  <c:v>20.792999999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>21.027999999999999</c:v>
+                </c:pt>
+                <c:pt idx="68" formatCode="0.000">
+                  <c:v>21.564</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="0.000">
+                  <c:v>22.169</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>22.530999999999999</c:v>
+                </c:pt>
+                <c:pt idx="71" formatCode="0.000">
+                  <c:v>22.81</c:v>
+                </c:pt>
+                <c:pt idx="72" formatCode="0.000">
+                  <c:v>23.361999999999998</c:v>
+                </c:pt>
+                <c:pt idx="73" formatCode="0.000">
+                  <c:v>23.89</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>24.288</c:v>
+                </c:pt>
+                <c:pt idx="75" formatCode="0.000">
+                  <c:v>24.416</c:v>
+                </c:pt>
+                <c:pt idx="76" formatCode="0.000">
+                  <c:v>25.01</c:v>
+                </c:pt>
+                <c:pt idx="77" formatCode="0.000">
+                  <c:v>25.071000000000002</c:v>
+                </c:pt>
+                <c:pt idx="78" formatCode="0.000">
+                  <c:v>25.481000000000002</c:v>
+                </c:pt>
+                <c:pt idx="79" formatCode="0.000">
+                  <c:v>26.113</c:v>
+                </c:pt>
+                <c:pt idx="80" formatCode="0.000">
+                  <c:v>26.849</c:v>
+                </c:pt>
+                <c:pt idx="81" formatCode="0.000">
+                  <c:v>27.577000000000002</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>27.934000000000001</c:v>
+                </c:pt>
+                <c:pt idx="83" formatCode="0.000">
+                  <c:v>28.082999999999998</c:v>
+                </c:pt>
+                <c:pt idx="84" formatCode="0.000">
+                  <c:v>28.588999999999999</c:v>
+                </c:pt>
+                <c:pt idx="85" formatCode="0.000">
+                  <c:v>29.914999999999999</c:v>
+                </c:pt>
+                <c:pt idx="86" formatCode="0.000">
+                  <c:v>31.478999999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>31.863</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>32.765000000000001</c:v>
+                </c:pt>
+                <c:pt idx="89" formatCode="0.000">
+                  <c:v>32.823999999999998</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>33.512999999999998</c:v>
+                </c:pt>
+                <c:pt idx="91" formatCode="0.000">
+                  <c:v>34.027000000000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>34.195999999999998</c:v>
+                </c:pt>
+                <c:pt idx="93" formatCode="0.000">
+                  <c:v>34.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="94" formatCode="0.000">
+                  <c:v>35.750999999999998</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>36.237000000000002</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>36.575000000000003</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>36.850999999999999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>37.143000000000001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>37.418999999999997</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>37.445</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>37.671999999999997</c:v>
+                </c:pt>
+                <c:pt idx="102" formatCode="0.000">
+                  <c:v>37.954000000000001</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>37.99</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>38.603999999999999</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>39.777999999999999</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>39.789000000000001</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>40.127000000000002</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>40.448999999999998</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>40.732999999999997</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>41.024000000000001</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>41.331000000000003</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>41.869</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>41.93</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>42.506</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>43.249000000000002</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>43.801000000000002</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>44.146000000000001</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>44.554000000000002</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>45.350999999999999</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>45.902999999999999</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>46.286000000000001</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>47.061</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>47.811999999999998</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>48.289000000000001</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>49.005000000000003</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>49.936999999999998</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>51.8</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>52.305999999999997</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>53.328000000000003</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>54.07</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>54.414999999999999</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>54.76</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>55.71</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>56.116999999999997</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>57.52</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>57.948999999999998</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>58.417000000000002</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>58.860999999999997</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>59.44</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>59.796999999999997</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>60.698</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>61.127000000000002</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>61.947000000000003</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>62.468000000000004</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>63.088999999999999</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>63.606000000000002</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>64.275999999999996</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>65.293000000000006</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>66.921999999999997</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>68.155000000000001</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>69.527000000000001</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>70.662999999999997</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>71.695999999999998</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>72.769000000000005</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>73.534999999999997</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>75.052000000000007</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>76.216999999999999</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>77.653999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>lattotal!$B$2:$B$160</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="159"/>
+                <c:pt idx="0">
+                  <c:v>16.98</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.97</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.93</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.93</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.93</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.88</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.84</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.79</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.73</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.670000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.64</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16.57</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.53</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.46</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.329999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16.059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15.88</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15.74</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15.58</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15.41</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15.24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15.06</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14.74</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14.56</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14.49</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14.39</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>14.22</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>14.03</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>13.84</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13.83</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13.65</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>13.31</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>13.13</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>12.92</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>12.71</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>12.34</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12.24</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="0.00">
+                  <c:v>12.21</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>11.98</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="0.00">
+                  <c:v>11.93</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="0.00">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="0.00">
+                  <c:v>11.29</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="0.00">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="0.00">
+                  <c:v>10.51</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="0.00">
+                  <c:v>10.11</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="0.00">
+                  <c:v>9.69</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="0.00">
+                  <c:v>9.25</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="0.00">
+                  <c:v>8.94</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>8.64</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="0.00">
+                  <c:v>8.58</c:v>
+                </c:pt>
+                <c:pt idx="56" formatCode="0.00">
+                  <c:v>8.2899999999999991</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="0.00">
+                  <c:v>7.99</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="0.00">
+                  <c:v>7.52</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="0.00">
+                  <c:v>7.02</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7.01</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="0.00">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="0.00">
+                  <c:v>6.08</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="0.00">
+                  <c:v>5.85</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5.75</c:v>
+                </c:pt>
+                <c:pt idx="65" formatCode="0.00">
+                  <c:v>5.62</c:v>
+                </c:pt>
+                <c:pt idx="66" formatCode="0.00">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.33</c:v>
+                </c:pt>
+                <c:pt idx="68" formatCode="0.00">
+                  <c:v>5.19</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="0.00">
+                  <c:v>5.0199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4.92</c:v>
+                </c:pt>
+                <c:pt idx="71" formatCode="0.00">
+                  <c:v>4.84</c:v>
+                </c:pt>
+                <c:pt idx="72" formatCode="0.00">
+                  <c:v>4.67</c:v>
+                </c:pt>
+                <c:pt idx="73" formatCode="0.00">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4.3499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="75" formatCode="0.00">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="76" formatCode="0.00">
+                  <c:v>4.05</c:v>
+                </c:pt>
+                <c:pt idx="77" formatCode="0.00">
+                  <c:v>4.03</c:v>
+                </c:pt>
+                <c:pt idx="78" formatCode="0.00">
+                  <c:v>3.83</c:v>
+                </c:pt>
+                <c:pt idx="79" formatCode="0.00">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="80" formatCode="0.00">
+                  <c:v>3.04</c:v>
+                </c:pt>
+                <c:pt idx="81" formatCode="0.00">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.21</c:v>
+                </c:pt>
+                <c:pt idx="83" formatCode="0.00">
+                  <c:v>2.08</c:v>
+                </c:pt>
+                <c:pt idx="84" formatCode="0.00">
+                  <c:v>1.61</c:v>
+                </c:pt>
+                <c:pt idx="85" formatCode="0.00">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="86" formatCode="0.00">
+                  <c:v>-2.5499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-3.37</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-5.38</c:v>
+                </c:pt>
+                <c:pt idx="89" formatCode="0.00">
+                  <c:v>-5.52</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-7.07</c:v>
+                </c:pt>
+                <c:pt idx="91" formatCode="0.00">
+                  <c:v>-8.17</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-8.51</c:v>
+                </c:pt>
+                <c:pt idx="93" formatCode="0.00">
+                  <c:v>-9.6300000000000008</c:v>
+                </c:pt>
+                <c:pt idx="94" formatCode="0.00">
+                  <c:v>-11.21</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-11.97</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-12.49</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-12.91</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-13.34</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-13.74</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-13.78</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-14.11</c:v>
+                </c:pt>
+                <c:pt idx="102" formatCode="0.00">
+                  <c:v>-14.51</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-14.56</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-15.41</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-16.97</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-16.98</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-17.41</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-17.82</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-18.170000000000002</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-18.53</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-18.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-19.53</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-19.61</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-20.27</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-21.11</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-21.72</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-22.09</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-22.53</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-23.36</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-23.92</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-24.3</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-25.04</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-25.73</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-26.15</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-26.76</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-27.51</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-28.91</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-29.27</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-29.95</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-30.43</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-30.64</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-30.85</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-31.4</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-31.62</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-32.36</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-32.44</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-32.61</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-32.770000000000003</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-32.97</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-33.08</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-33.36</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-33.479999999999997</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-33.71</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-33.86</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-34.04</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-34.19</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-34.39</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-34.72</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-35.35</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-35.92</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-36.69</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-37.46</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-38.21</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-39.049999999999997</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-39.67</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-40.93</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-41.93</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-43.16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1133641296"/>
+        <c:axId val="-1133641840"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1133641296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1133641840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1133641840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1133641296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1323,11 +2596,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="547647776"/>
-        <c:axId val="547637440"/>
+        <c:axId val="-1141125920"/>
+        <c:axId val="-1141135712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="547647776"/>
+        <c:axId val="-1141125920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1384,12 +2657,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="547637440"/>
+        <c:crossAx val="-1141135712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="547637440"/>
+        <c:axId val="-1141135712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1446,7 +2719,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="547647776"/>
+        <c:crossAx val="-1141125920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1510,7 +2783,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1707,11 +2979,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="547642880"/>
-        <c:axId val="547639616"/>
+        <c:axId val="-1141128096"/>
+        <c:axId val="-1141124832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="547642880"/>
+        <c:axId val="-1141128096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1768,12 +3040,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="547639616"/>
+        <c:crossAx val="-1141124832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="547639616"/>
+        <c:axId val="-1141124832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1830,7 +3102,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="547642880"/>
+        <c:crossAx val="-1141128096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1894,7 +3166,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1971,7 +3242,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="0"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2120,11 +3390,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="547650496"/>
-        <c:axId val="547644512"/>
+        <c:axId val="-1141138432"/>
+        <c:axId val="-1141137888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="547650496"/>
+        <c:axId val="-1141138432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2181,12 +3451,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="547644512"/>
+        <c:crossAx val="-1141137888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="547644512"/>
+        <c:axId val="-1141137888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2243,7 +3513,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="547650496"/>
+        <c:crossAx val="-1141138432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2455,11 +3725,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="552111360"/>
-        <c:axId val="552100480"/>
+        <c:axId val="-1141136800"/>
+        <c:axId val="-1141129728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="552111360"/>
+        <c:axId val="-1141136800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2516,12 +3786,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="552100480"/>
+        <c:crossAx val="-1141129728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="552100480"/>
+        <c:axId val="-1141129728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2578,7 +3848,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="552111360"/>
+        <c:crossAx val="-1141136800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2790,11 +4060,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="552103744"/>
-        <c:axId val="552110272"/>
+        <c:axId val="-1141131904"/>
+        <c:axId val="-1141131360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="552103744"/>
+        <c:axId val="-1141131904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2851,12 +4121,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="552110272"/>
+        <c:crossAx val="-1141131360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="552110272"/>
+        <c:axId val="-1141131360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2913,7 +4183,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="552103744"/>
+        <c:crossAx val="-1141131904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3006,7 +4276,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3734,11 +5003,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="552098848"/>
-        <c:axId val="552098304"/>
+        <c:axId val="-1427217552"/>
+        <c:axId val="-1427212656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="552098848"/>
+        <c:axId val="-1427217552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3795,12 +5064,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="552098304"/>
+        <c:crossAx val="-1427212656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="552098304"/>
+        <c:axId val="-1427212656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3857,7 +5126,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="552098848"/>
+        <c:crossAx val="-1427217552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3946,7 +5215,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4674,11 +5942,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="552101568"/>
-        <c:axId val="552101024"/>
+        <c:axId val="-1427224624"/>
+        <c:axId val="-1427223536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="552101568"/>
+        <c:axId val="-1427224624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4735,12 +6003,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="552101024"/>
+        <c:crossAx val="-1427223536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="552101024"/>
+        <c:axId val="-1427223536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4797,7 +6065,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="552101568"/>
+        <c:crossAx val="-1427224624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4846,7 +6114,2846 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="6"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>lattotal!$A$2:$A$201</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>6.9000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.219</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.34100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.47499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.77800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.94299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.032</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2230000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.825</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.1549999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.4889999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.8690000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.9089999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.2250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.59</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.9580000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.3150000000000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.6669999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.9969999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.3159999999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.6529999999999996</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.782</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.9790000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.2969999999999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.6310000000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.9720000000000004</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.9889999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.3019999999999996</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.5739999999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.8890000000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.1959999999999997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.548</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.8819999999999997</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.2189999999999994</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.4749999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.6329999999999991</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="0.000">
+                  <c:v>9.6790000000000003</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>10.025</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="0.000">
+                  <c:v>10.103999999999999</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="0.000">
+                  <c:v>10.595000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="0.000">
+                  <c:v>11.032</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="0.000">
+                  <c:v>11.558</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="0.000">
+                  <c:v>12.06</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="0.000">
+                  <c:v>12.57</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="0.000">
+                  <c:v>13.103</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="0.000">
+                  <c:v>13.654999999999999</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="0.000">
+                  <c:v>14.05</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>14.44</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="0.000">
+                  <c:v>14.525</c:v>
+                </c:pt>
+                <c:pt idx="56" formatCode="0.000">
+                  <c:v>14.904999999999999</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="0.000">
+                  <c:v>15.315</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="0.000">
+                  <c:v>15.975</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="0.000">
+                  <c:v>16.763999999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>16.783999999999999</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="0.000">
+                  <c:v>17.504000000000001</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="0.000">
+                  <c:v>18.689</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="0.000">
+                  <c:v>19.318000000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>19.616</c:v>
+                </c:pt>
+                <c:pt idx="65" formatCode="0.000">
+                  <c:v>20.038</c:v>
+                </c:pt>
+                <c:pt idx="66" formatCode="0.000">
+                  <c:v>20.792999999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>21.027999999999999</c:v>
+                </c:pt>
+                <c:pt idx="68" formatCode="0.000">
+                  <c:v>21.564</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="0.000">
+                  <c:v>22.169</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>22.530999999999999</c:v>
+                </c:pt>
+                <c:pt idx="71" formatCode="0.000">
+                  <c:v>22.81</c:v>
+                </c:pt>
+                <c:pt idx="72" formatCode="0.000">
+                  <c:v>23.361999999999998</c:v>
+                </c:pt>
+                <c:pt idx="73" formatCode="0.000">
+                  <c:v>23.89</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>24.288</c:v>
+                </c:pt>
+                <c:pt idx="75" formatCode="0.000">
+                  <c:v>24.416</c:v>
+                </c:pt>
+                <c:pt idx="76" formatCode="0.000">
+                  <c:v>25.01</c:v>
+                </c:pt>
+                <c:pt idx="77" formatCode="0.000">
+                  <c:v>25.071000000000002</c:v>
+                </c:pt>
+                <c:pt idx="78" formatCode="0.000">
+                  <c:v>25.481000000000002</c:v>
+                </c:pt>
+                <c:pt idx="79" formatCode="0.000">
+                  <c:v>26.113</c:v>
+                </c:pt>
+                <c:pt idx="80" formatCode="0.000">
+                  <c:v>26.849</c:v>
+                </c:pt>
+                <c:pt idx="81" formatCode="0.000">
+                  <c:v>27.577000000000002</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>27.934000000000001</c:v>
+                </c:pt>
+                <c:pt idx="83" formatCode="0.000">
+                  <c:v>28.082999999999998</c:v>
+                </c:pt>
+                <c:pt idx="84" formatCode="0.000">
+                  <c:v>28.588999999999999</c:v>
+                </c:pt>
+                <c:pt idx="85" formatCode="0.000">
+                  <c:v>29.914999999999999</c:v>
+                </c:pt>
+                <c:pt idx="86" formatCode="0.000">
+                  <c:v>31.478999999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>31.863</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>32.765000000000001</c:v>
+                </c:pt>
+                <c:pt idx="89" formatCode="0.000">
+                  <c:v>32.823999999999998</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>33.512999999999998</c:v>
+                </c:pt>
+                <c:pt idx="91" formatCode="0.000">
+                  <c:v>34.027000000000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>34.195999999999998</c:v>
+                </c:pt>
+                <c:pt idx="93" formatCode="0.000">
+                  <c:v>34.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="94" formatCode="0.000">
+                  <c:v>35.750999999999998</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>36.237000000000002</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>36.575000000000003</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>36.850999999999999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>37.143000000000001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>37.418999999999997</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>37.445</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>37.671999999999997</c:v>
+                </c:pt>
+                <c:pt idx="102" formatCode="0.000">
+                  <c:v>37.954000000000001</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>37.99</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>38.603999999999999</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>39.777999999999999</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>39.789000000000001</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>40.127000000000002</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>40.448999999999998</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>40.732999999999997</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>41.024000000000001</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>41.331000000000003</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>41.869</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>41.93</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>42.506</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>43.249000000000002</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>43.801000000000002</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>44.146000000000001</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>44.554000000000002</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>45.350999999999999</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>45.902999999999999</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>46.286000000000001</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>47.061</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>47.811999999999998</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>48.289000000000001</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>49.005000000000003</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>49.936999999999998</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>51.8</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>52.305999999999997</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>53.328000000000003</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>54.07</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>54.414999999999999</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>54.76</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>55.71</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>56.116999999999997</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>57.52</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>57.948999999999998</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>58.417000000000002</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>58.860999999999997</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>59.44</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>59.796999999999997</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>60.698</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>61.127000000000002</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>61.947000000000003</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>62.468000000000004</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>63.088999999999999</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>63.606000000000002</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>64.275999999999996</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>65.293000000000006</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>66.921999999999997</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>68.155000000000001</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>69.527000000000001</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>70.662999999999997</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>71.695999999999998</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>72.769000000000005</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>73.534999999999997</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>75.052000000000007</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>76.216999999999999</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>77.653999999999996</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>79.738</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>80.923000000000002</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>81.81</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>82.751999999999995</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>83.736999999999995</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>84.284999999999997</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>85.215999999999994</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>85.46</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>85.545000000000002</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>86.225999999999999</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>87.099000000000004</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>87.96</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>88.694000000000003</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>89.061999999999998</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>89.087000000000003</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>89.183000000000007</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>89.239000000000004</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>89.262</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>89.274000000000001</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>89.344999999999999</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>89.364999999999995</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>89.400999999999996</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>89.421000000000006</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>89.462999999999994</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>89.503</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>89.552999999999997</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>89.558999999999997</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>89.584999999999994</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>89.634</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>89.659000000000006</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>89.721000000000004</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>89.727000000000004</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>89.731999999999999</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>89.738</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>89.802000000000007</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>89.823999999999998</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>89.831999999999994</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>89.837000000000003</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>89.875</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>89.885999999999996</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>89.893000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>lattotal!$C$2:$C$201</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>9.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.0299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.0500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.1199999999999992</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.24</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.2799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.33</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.39</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.4499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.4499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.56</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.61</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.67</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.7200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.77</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.82</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.8699999999999992</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.89</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.92</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.9700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10.02</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10.08</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10.08</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10.130000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>10.17</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10.220000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10.26</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10.32</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10.37</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10.42</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10.46</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10.48</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="0.00">
+                  <c:v>10.49</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>10.54</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="0.00">
+                  <c:v>10.55</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="0.00">
+                  <c:v>10.62</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="0.00">
+                  <c:v>10.69</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="0.00">
+                  <c:v>10.77</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="0.00">
+                  <c:v>10.84</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="0.00">
+                  <c:v>10.92</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="0.00">
+                  <c:v>10.99</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="0.00">
+                  <c:v>11.07</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="0.00">
+                  <c:v>11.13</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>11.19</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="0.00">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="56" formatCode="0.00">
+                  <c:v>11.26</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="0.00">
+                  <c:v>11.32</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="0.00">
+                  <c:v>11.41</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="0.00">
+                  <c:v>11.52</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>11.52</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="0.00">
+                  <c:v>11.63</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="0.00">
+                  <c:v>11.79</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="0.00">
+                  <c:v>11.88</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>11.92</c:v>
+                </c:pt>
+                <c:pt idx="65" formatCode="0.00">
+                  <c:v>11.97</c:v>
+                </c:pt>
+                <c:pt idx="66" formatCode="0.00">
+                  <c:v>12.08</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>12.11</c:v>
+                </c:pt>
+                <c:pt idx="68" formatCode="0.00">
+                  <c:v>12.18</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="0.00">
+                  <c:v>12.26</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>12.31</c:v>
+                </c:pt>
+                <c:pt idx="71" formatCode="0.00">
+                  <c:v>12.34</c:v>
+                </c:pt>
+                <c:pt idx="72" formatCode="0.00">
+                  <c:v>12.42</c:v>
+                </c:pt>
+                <c:pt idx="73" formatCode="0.00">
+                  <c:v>12.48</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>12.53</c:v>
+                </c:pt>
+                <c:pt idx="75" formatCode="0.00">
+                  <c:v>12.55</c:v>
+                </c:pt>
+                <c:pt idx="76" formatCode="0.00">
+                  <c:v>12.62</c:v>
+                </c:pt>
+                <c:pt idx="77" formatCode="0.00">
+                  <c:v>12.63</c:v>
+                </c:pt>
+                <c:pt idx="78" formatCode="0.00">
+                  <c:v>12.68</c:v>
+                </c:pt>
+                <c:pt idx="79" formatCode="0.00">
+                  <c:v>12.76</c:v>
+                </c:pt>
+                <c:pt idx="80" formatCode="0.00">
+                  <c:v>12.85</c:v>
+                </c:pt>
+                <c:pt idx="81" formatCode="0.00">
+                  <c:v>12.94</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>12.98</c:v>
+                </c:pt>
+                <c:pt idx="83" formatCode="0.00">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="84" formatCode="0.00">
+                  <c:v>13.06</c:v>
+                </c:pt>
+                <c:pt idx="85" formatCode="0.00">
+                  <c:v>13.21</c:v>
+                </c:pt>
+                <c:pt idx="86" formatCode="0.00">
+                  <c:v>13.38</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>13.43</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>13.52</c:v>
+                </c:pt>
+                <c:pt idx="89" formatCode="0.00">
+                  <c:v>13.53</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="91" formatCode="0.00">
+                  <c:v>13.65</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>13.67</c:v>
+                </c:pt>
+                <c:pt idx="93" formatCode="0.00">
+                  <c:v>13.73</c:v>
+                </c:pt>
+                <c:pt idx="94" formatCode="0.00">
+                  <c:v>13.82</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>13.87</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>13.93</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>13.95</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>13.98</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>13.98</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="102" formatCode="0.00">
+                  <c:v>14.03</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>14.03</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>14.08</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>14.18</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>14.18</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>14.21</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>14.24</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>14.26</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>14.28</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>14.31</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>14.35</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>14.35</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>14.45</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>14.49</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>14.51</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>14.54</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>14.59</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>14.63</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>14.65</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>14.69</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>14.73</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>14.75</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>14.78</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>14.82</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>14.87</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>14.88</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>14.88</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>14.86</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>14.73</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>14.67</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>14.6</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>14.53</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>14.42</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>14.35</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>14.15</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>14.05</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>13.85</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>13.72</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>13.55</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>13.41</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>13.22</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>12.93</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>12.46</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>12.12</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>11.69</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>11.27</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>10.84</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>10.34</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>9.9600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>9.14</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>8.4499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>7.67</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>6.74</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>6.32</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>6.05</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>5.58</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>5.47</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>5.32</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>5.29</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>5.28</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>5.19</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>5.1100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>5.05</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>5.0199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>5.01</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>5.01</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>5.01</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>5.01</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>5.01</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>5.01</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>5.01</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>lattotal!$A$2:$A$201</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>6.9000000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.219</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.34100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.47499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.77800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.94299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.032</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2230000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.825</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.1549999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.4889999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.8690000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.9089999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.2250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.59</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.9580000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.3150000000000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.6669999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.9969999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.3159999999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.6529999999999996</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.782</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.9790000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.2969999999999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.6310000000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.9720000000000004</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.9889999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.3019999999999996</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.5739999999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.8890000000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.1959999999999997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.548</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.8819999999999997</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.2189999999999994</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.4749999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.6329999999999991</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="0.000">
+                  <c:v>9.6790000000000003</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>10.025</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="0.000">
+                  <c:v>10.103999999999999</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="0.000">
+                  <c:v>10.595000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="0.000">
+                  <c:v>11.032</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="0.000">
+                  <c:v>11.558</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="0.000">
+                  <c:v>12.06</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="0.000">
+                  <c:v>12.57</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="0.000">
+                  <c:v>13.103</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="0.000">
+                  <c:v>13.654999999999999</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="0.000">
+                  <c:v>14.05</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>14.44</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="0.000">
+                  <c:v>14.525</c:v>
+                </c:pt>
+                <c:pt idx="56" formatCode="0.000">
+                  <c:v>14.904999999999999</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="0.000">
+                  <c:v>15.315</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="0.000">
+                  <c:v>15.975</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="0.000">
+                  <c:v>16.763999999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>16.783999999999999</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="0.000">
+                  <c:v>17.504000000000001</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="0.000">
+                  <c:v>18.689</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="0.000">
+                  <c:v>19.318000000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>19.616</c:v>
+                </c:pt>
+                <c:pt idx="65" formatCode="0.000">
+                  <c:v>20.038</c:v>
+                </c:pt>
+                <c:pt idx="66" formatCode="0.000">
+                  <c:v>20.792999999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>21.027999999999999</c:v>
+                </c:pt>
+                <c:pt idx="68" formatCode="0.000">
+                  <c:v>21.564</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="0.000">
+                  <c:v>22.169</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>22.530999999999999</c:v>
+                </c:pt>
+                <c:pt idx="71" formatCode="0.000">
+                  <c:v>22.81</c:v>
+                </c:pt>
+                <c:pt idx="72" formatCode="0.000">
+                  <c:v>23.361999999999998</c:v>
+                </c:pt>
+                <c:pt idx="73" formatCode="0.000">
+                  <c:v>23.89</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>24.288</c:v>
+                </c:pt>
+                <c:pt idx="75" formatCode="0.000">
+                  <c:v>24.416</c:v>
+                </c:pt>
+                <c:pt idx="76" formatCode="0.000">
+                  <c:v>25.01</c:v>
+                </c:pt>
+                <c:pt idx="77" formatCode="0.000">
+                  <c:v>25.071000000000002</c:v>
+                </c:pt>
+                <c:pt idx="78" formatCode="0.000">
+                  <c:v>25.481000000000002</c:v>
+                </c:pt>
+                <c:pt idx="79" formatCode="0.000">
+                  <c:v>26.113</c:v>
+                </c:pt>
+                <c:pt idx="80" formatCode="0.000">
+                  <c:v>26.849</c:v>
+                </c:pt>
+                <c:pt idx="81" formatCode="0.000">
+                  <c:v>27.577000000000002</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>27.934000000000001</c:v>
+                </c:pt>
+                <c:pt idx="83" formatCode="0.000">
+                  <c:v>28.082999999999998</c:v>
+                </c:pt>
+                <c:pt idx="84" formatCode="0.000">
+                  <c:v>28.588999999999999</c:v>
+                </c:pt>
+                <c:pt idx="85" formatCode="0.000">
+                  <c:v>29.914999999999999</c:v>
+                </c:pt>
+                <c:pt idx="86" formatCode="0.000">
+                  <c:v>31.478999999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>31.863</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>32.765000000000001</c:v>
+                </c:pt>
+                <c:pt idx="89" formatCode="0.000">
+                  <c:v>32.823999999999998</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>33.512999999999998</c:v>
+                </c:pt>
+                <c:pt idx="91" formatCode="0.000">
+                  <c:v>34.027000000000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>34.195999999999998</c:v>
+                </c:pt>
+                <c:pt idx="93" formatCode="0.000">
+                  <c:v>34.781999999999996</c:v>
+                </c:pt>
+                <c:pt idx="94" formatCode="0.000">
+                  <c:v>35.750999999999998</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>36.237000000000002</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>36.575000000000003</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>36.850999999999999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>37.143000000000001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>37.418999999999997</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>37.445</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>37.671999999999997</c:v>
+                </c:pt>
+                <c:pt idx="102" formatCode="0.000">
+                  <c:v>37.954000000000001</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>37.99</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>38.603999999999999</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>39.777999999999999</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>39.789000000000001</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>40.127000000000002</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>40.448999999999998</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>40.732999999999997</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>41.024000000000001</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>41.331000000000003</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>41.869</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>41.93</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>42.506</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>43.249000000000002</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>43.801000000000002</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>44.146000000000001</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>44.554000000000002</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>45.350999999999999</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>45.902999999999999</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>46.286000000000001</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>47.061</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>47.811999999999998</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>48.289000000000001</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>49.005000000000003</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>49.936999999999998</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>51.8</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>52.305999999999997</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>53.328000000000003</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>54.07</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>54.414999999999999</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>54.76</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>55.71</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>56.116999999999997</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>57.52</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>57.948999999999998</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>58.417000000000002</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>58.860999999999997</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>59.44</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>59.796999999999997</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>60.698</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>61.127000000000002</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>61.947000000000003</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>62.468000000000004</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>63.088999999999999</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>63.606000000000002</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>64.275999999999996</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>65.293000000000006</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>66.921999999999997</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>68.155000000000001</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>69.527000000000001</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>70.662999999999997</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>71.695999999999998</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>72.769000000000005</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>73.534999999999997</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>75.052000000000007</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>76.216999999999999</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>77.653999999999996</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>79.738</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>80.923000000000002</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>81.81</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>82.751999999999995</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>83.736999999999995</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>84.284999999999997</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>85.215999999999994</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>85.46</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>85.545000000000002</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>86.225999999999999</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>87.099000000000004</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>87.96</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>88.694000000000003</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>89.061999999999998</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>89.087000000000003</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>89.183000000000007</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>89.239000000000004</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>89.262</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>89.274000000000001</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>89.344999999999999</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>89.364999999999995</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>89.400999999999996</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>89.421000000000006</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>89.462999999999994</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>89.503</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>89.552999999999997</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>89.558999999999997</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>89.584999999999994</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>89.634</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>89.659000000000006</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>89.721000000000004</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>89.727000000000004</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>89.731999999999999</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>89.738</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>89.802000000000007</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>89.823999999999998</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>89.831999999999994</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>89.837000000000003</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>89.875</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>89.885999999999996</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>89.893000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>lattotal!$E$2:$E$201</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>9.010830143071491</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0120854421434675</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0142820306464273</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.0312192315194011</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0334137689364038</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0343542128965399</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.0534671917481795</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.0744395178281252</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0978903808593756</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.1217823586890496</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.1475166120381939</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.1613838864952317</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.1911117333234333</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.2054151910691253</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.2364743877341251</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.2845205466093752</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.3355385771261261</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.3870405077438299</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.4454706881990909</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.4516110146245715</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.5000510829843741</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.5558508717209989</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.6119445365060869</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.6662031230441237</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.7195488151910361</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.7694222194650262</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.8175058570055036</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.8681665050199232</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.8875217845282322</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.9170401954712606</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.9645879846399268</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10.014393337262408</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10.065099829157953</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10.067623941860331</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10.114033140772392</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>10.154264228284775</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10.200740225063631</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10.245916788886463</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10.297570429737407</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10.346439345295032</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10.395605500949543</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10.432859000953124</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10.455810295360862</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10.462486417246161</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>10.512617106234373</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>10.524041984795137</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>10.594873253605126</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>10.657658335775231</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>10.732909578846886</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>10.804399790184</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>10.876700938407001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>10.951908198756273</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>11.029413487013624</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>11.084634994875</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>11.138960903616001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>11.150775204046877</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>11.203478304732377</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>11.260133343619126</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>11.350877795015624</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>11.458617767048256</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>11.461338309021695</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>11.558930939559938</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>11.718078097383231</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>11.801805735374568</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>11.841291535663105</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>11.897007446905127</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>11.996101860982742</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>12.02679183618605</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>12.096516950945855</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>12.174758985547191</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>12.221341652252709</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>12.257124385959001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>12.327613590126072</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>12.394655950131</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>12.444944173744128</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>12.461071986376703</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>12.535626182499</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>12.543255471967088</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>12.594403845040359</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>12.672801577175104</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>12.76341711296195</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>12.852322384250968</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>12.895655852783497</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>12.913690271352213</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>12.97470777369953</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>13.132939515364125</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>13.31645313048476</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>13.360991603347351</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>13.464803155702874</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>13.471553945227777</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>13.550029138863302</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>13.608139252222315</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>13.627164496438464</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>13.692822655940232</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>13.800332030730249</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>13.853753363035947</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>13.890709127390624</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>13.920765761396948</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>13.952446956836793</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>13.982280669568942</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>13.985085501103876</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>14.009532916311553</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>14.039801361273335</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>14.043657248600999</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>14.109136373027138</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>14.232832126461048</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>14.233981754273932</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>14.269221785071617</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>14.302640556761151</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>14.331991358087162</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>14.361944751538177</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>14.393412318132309</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>14.448228195362091</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>14.454416882943001</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>14.512587836309784</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>14.586911182832752</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>14.641607011948601</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>14.675565625575864</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>14.715500335456536</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>14.79280507902145</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>14.845798213070672</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>14.882302883158346</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>14.955506595512016</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>15.025593966708673</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>15.06967486823843</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>15.135205966324873</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>15.219358523500047</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>15.383664167999999</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>15.427386510531385</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>15.514512452456446</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>15.576773905857001</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>15.605437273076625</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>15.633918949824</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>15.711405755589002</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>15.744179349246387</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>15.855201940991998</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>15.888543278958648</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>15.924590773402288</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>15.95847576726862</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>16.002203567616</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>16.028905265345426</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>16.095411240811607</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>16.126631267944617</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>16.185503188274879</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>16.222359568632768</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>16.265731626626032</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>16.301375786250986</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>16.346939359583427</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>16.414739949891246</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>16.519907753190552</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>16.596685520176127</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>16.679242985333818</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>16.745296557675751</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>16.803542024638464</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>16.862200906667393</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>16.902924383594627</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>16.980729269059392</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>17.037903424089684</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>17.105326990277735</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>17.196990757024729</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>17.245864993309535</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>17.280900146258997</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>17.316651014356992</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>17.35242367020345</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>17.371610893150876</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>17.403033299042303</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>17.411023484664003</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>17.413783006746375</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>17.435444477248826</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>17.462047967368701</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>17.486999897663999</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>17.507260124240617</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>17.517066761013673</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>17.517724456018499</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>17.520239929908513</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>17.521699905441078</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>17.52229796166727</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>17.522609626537179</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>17.524448529261377</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>17.524964950297875</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>17.5258927580518</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>17.52640723443454</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>17.527485373824153</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>17.528509324933477</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>17.529785355484623</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>17.529938187296125</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>17.530599735723378</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>17.531843307307895</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>17.532476175181824</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>17.534041000047637</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>17.534192080116416</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>17.534317932368833</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>17.534468897704727</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>17.536075300282391</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>17.536625856331774</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>17.536825849861636</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>17.53695078930075</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>17.537898908203122</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>17.538172894961544</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>17.538347140595043</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1427221904"/>
+        <c:axId val="-1427215920"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1427221904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1427215920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1427215920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1427221904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5166,6 +9273,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5682,7 +9829,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6198,7 +10345,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6714,7 +10861,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7230,7 +11377,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7746,7 +11893,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8262,7 +12409,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8778,7 +12925,1039 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9535,6 +14714,71 @@
       <xdr:colOff>171449</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11915,8 +17159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12791,7 +18035,7 @@
         <v>9.9600000000000009</v>
       </c>
     </row>
-    <row r="49" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E49" s="6">
         <v>75.052000000000007</v>
       </c>
@@ -12802,7 +18046,7 @@
         <v>9.14</v>
       </c>
     </row>
-    <row r="50" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E50" s="6">
         <v>76.216999999999999</v>
       </c>
@@ -12813,7 +18057,11 @@
         <v>8.4499999999999993</v>
       </c>
     </row>
-    <row r="51" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f>(C3-$C$2)/(A3-$A$2)</f>
+        <v>0.16393442622950471</v>
+      </c>
       <c r="E51" s="6">
         <v>79.738</v>
       </c>
@@ -12824,7 +18072,11 @@
         <v>6.74</v>
       </c>
     </row>
-    <row r="52" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" ref="A52:A55" si="0">(C4-$C$2)/(A4-$A$2)</f>
+        <v>0.15522875816993423</v>
+      </c>
       <c r="E52" s="6">
         <v>81.81</v>
       </c>
@@ -12835,7 +18087,11 @@
         <v>6.05</v>
       </c>
     </row>
-    <row r="53" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="0"/>
+        <v>0.15613910574875783</v>
+      </c>
       <c r="E53" s="6">
         <v>83.736999999999995</v>
       </c>
@@ -12846,7 +18102,11 @@
         <v>5.58</v>
       </c>
     </row>
-    <row r="54" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f t="shared" si="0"/>
+        <v>0.15463011772974886</v>
+      </c>
       <c r="E54" s="6">
         <v>84.284999999999997</v>
       </c>
@@ -12857,7 +18117,11 @@
         <v>5.47</v>
       </c>
     </row>
-    <row r="55" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f t="shared" si="0"/>
+        <v>0.15511742534067852</v>
+      </c>
       <c r="E55" s="6">
         <v>86.225999999999999</v>
       </c>
@@ -12868,7 +18132,7 @@
         <v>5.19</v>
       </c>
     </row>
-    <row r="56" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E56" s="6">
         <v>87.099000000000004</v>
       </c>
@@ -12879,7 +18143,7 @@
         <v>5.1100000000000003</v>
       </c>
     </row>
-    <row r="57" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E57" s="6">
         <v>87.96</v>
       </c>
@@ -12890,7 +18154,7 @@
         <v>5.05</v>
       </c>
     </row>
-    <row r="58" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E58" s="6">
         <v>88.694000000000003</v>
       </c>
@@ -12901,7 +18165,7 @@
         <v>5.0199999999999996</v>
       </c>
     </row>
-    <row r="59" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E59" s="6">
         <v>89.087000000000003</v>
       </c>
@@ -12912,7 +18176,7 @@
         <v>5.01</v>
       </c>
     </row>
-    <row r="60" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E60" s="6">
         <v>89.239000000000004</v>
       </c>
@@ -12923,7 +18187,7 @@
         <v>5.01</v>
       </c>
     </row>
-    <row r="61" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E61" s="6">
         <v>89.400999999999996</v>
       </c>
@@ -12934,7 +18198,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E62" s="6">
         <v>89.558999999999997</v>
       </c>
@@ -12945,7 +18209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E63" s="6">
         <v>89.831999999999994</v>
       </c>
@@ -12963,4 +18227,3897 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K201"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F183" sqref="F183:F201"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="B2">
+        <v>16.98</v>
+      </c>
+      <c r="C2">
+        <v>9.01</v>
+      </c>
+      <c r="E2">
+        <f>SUMPRODUCT($H$2:$H$12*A2^$I$2:$I$12)</f>
+        <v>9.010830143071491</v>
+      </c>
+      <c r="F2">
+        <f>C2-ROUND(E2,2)</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>9</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f>SUMSQ(F2:F100)</f>
+        <v>0.24399999999999936</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="B3">
+        <v>16.97</v>
+      </c>
+      <c r="C3">
+        <v>9.01</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E66" si="0">SUMPRODUCT($H$2:$H$12*A3^$I$2:$I$12)</f>
+        <v>9.0120854421434675</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="1">C3-ROUND(E3,2)</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0.157</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="B4">
+        <v>16.97</v>
+      </c>
+      <c r="C4">
+        <v>9.01</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>9.0142820306464273</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>-5.9999999999999995E-4</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="B5">
+        <v>16.93</v>
+      </c>
+      <c r="C5">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>9.0312192315194011</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>-9.9999999999999995E-7</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="B6">
+        <v>16.93</v>
+      </c>
+      <c r="C6">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>9.0334137689364038</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.219</v>
+      </c>
+      <c r="B7">
+        <v>16.93</v>
+      </c>
+      <c r="C7">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>9.0343542128965399</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="B8">
+        <v>16.88</v>
+      </c>
+      <c r="C8">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>9.0534671917481795</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="B9">
+        <v>16.84</v>
+      </c>
+      <c r="C9">
+        <v>9.07</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>9.0744395178281252</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.625</v>
+      </c>
+      <c r="B10">
+        <v>16.79</v>
+      </c>
+      <c r="C10">
+        <v>9.1</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>9.0978903808593756</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="B11">
+        <v>16.73</v>
+      </c>
+      <c r="C11">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>9.1217823586890496</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="B12">
+        <v>16.670000000000002</v>
+      </c>
+      <c r="C12">
+        <v>9.15</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>9.1475166120381939</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1.032</v>
+      </c>
+      <c r="B13">
+        <v>16.64</v>
+      </c>
+      <c r="C13">
+        <v>9.16</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>9.1613838864952317</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1.2230000000000001</v>
+      </c>
+      <c r="B14">
+        <v>16.57</v>
+      </c>
+      <c r="C14">
+        <v>9.19</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>9.1911117333234333</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1.3149999999999999</v>
+      </c>
+      <c r="B15">
+        <v>16.53</v>
+      </c>
+      <c r="C15">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>9.2054151910691253</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>-1.0000000000001563E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1.5149999999999999</v>
+      </c>
+      <c r="B16">
+        <v>16.46</v>
+      </c>
+      <c r="C16">
+        <v>9.24</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>9.2364743877341251</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1.825</v>
+      </c>
+      <c r="B17">
+        <v>16.329999999999998</v>
+      </c>
+      <c r="C17">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>9.2845205466093752</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2.1549999999999998</v>
+      </c>
+      <c r="B18">
+        <v>16.2</v>
+      </c>
+      <c r="C18">
+        <v>9.33</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>9.3355385771261261</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>-9.9999999999997868E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2.4889999999999999</v>
+      </c>
+      <c r="B19">
+        <v>16.059999999999999</v>
+      </c>
+      <c r="C19">
+        <v>9.39</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>9.3870405077438299</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2.8690000000000002</v>
+      </c>
+      <c r="B20">
+        <v>15.9</v>
+      </c>
+      <c r="C20">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>9.4454706881990909</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2.9089999999999998</v>
+      </c>
+      <c r="B21">
+        <v>15.88</v>
+      </c>
+      <c r="C21">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>9.4516110146245715</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>3.2250000000000001</v>
+      </c>
+      <c r="B22">
+        <v>15.74</v>
+      </c>
+      <c r="C22">
+        <v>9.5</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>9.5000510829843741</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>3.59</v>
+      </c>
+      <c r="B23">
+        <v>15.58</v>
+      </c>
+      <c r="C23">
+        <v>9.56</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>9.5558508717209989</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>3.9580000000000002</v>
+      </c>
+      <c r="B24">
+        <v>15.41</v>
+      </c>
+      <c r="C24">
+        <v>9.61</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>9.6119445365060869</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>4.3150000000000004</v>
+      </c>
+      <c r="B25">
+        <v>15.24</v>
+      </c>
+      <c r="C25">
+        <v>9.67</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>9.6662031230441237</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>4.6669999999999998</v>
+      </c>
+      <c r="B26">
+        <v>15.06</v>
+      </c>
+      <c r="C26">
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>9.7195488151910361</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>4.9969999999999999</v>
+      </c>
+      <c r="B27">
+        <v>14.9</v>
+      </c>
+      <c r="C27">
+        <v>9.77</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>9.7694222194650262</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>5.3159999999999998</v>
+      </c>
+      <c r="B28">
+        <v>14.74</v>
+      </c>
+      <c r="C28">
+        <v>9.82</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>9.8175058570055036</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>5.6529999999999996</v>
+      </c>
+      <c r="B29">
+        <v>14.56</v>
+      </c>
+      <c r="C29">
+        <v>9.8699999999999992</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>9.8681665050199232</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>5.782</v>
+      </c>
+      <c r="B30">
+        <v>14.49</v>
+      </c>
+      <c r="C30">
+        <v>9.89</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>9.8875217845282322</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>5.9790000000000001</v>
+      </c>
+      <c r="B31">
+        <v>14.39</v>
+      </c>
+      <c r="C31">
+        <v>9.92</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>9.9170401954712606</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>6.2969999999999997</v>
+      </c>
+      <c r="B32">
+        <v>14.22</v>
+      </c>
+      <c r="C32">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>9.9645879846399268</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>9.9999999999997868E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>6.6310000000000002</v>
+      </c>
+      <c r="B33">
+        <v>14.03</v>
+      </c>
+      <c r="C33">
+        <v>10.02</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>10.014393337262408</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>9.9999999999997868E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>6.9720000000000004</v>
+      </c>
+      <c r="B34">
+        <v>13.84</v>
+      </c>
+      <c r="C34">
+        <v>10.08</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>10.065099829157953</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>9.9999999999997868E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>6.9889999999999999</v>
+      </c>
+      <c r="B35">
+        <v>13.83</v>
+      </c>
+      <c r="C35">
+        <v>10.08</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>10.067623941860331</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>9.9999999999997868E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>7.3019999999999996</v>
+      </c>
+      <c r="B36">
+        <v>13.65</v>
+      </c>
+      <c r="C36">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>10.114033140772392</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>2.000000000000135E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>7.5739999999999998</v>
+      </c>
+      <c r="B37">
+        <v>13.5</v>
+      </c>
+      <c r="C37">
+        <v>10.17</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>10.154264228284775</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>1.9999999999999574E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>7.8890000000000002</v>
+      </c>
+      <c r="B38">
+        <v>13.31</v>
+      </c>
+      <c r="C38">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>10.200740225063631</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>2.000000000000135E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>8.1959999999999997</v>
+      </c>
+      <c r="B39">
+        <v>13.13</v>
+      </c>
+      <c r="C39">
+        <v>10.26</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>10.245916788886463</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>9.9999999999997868E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>8.548</v>
+      </c>
+      <c r="B40">
+        <v>12.92</v>
+      </c>
+      <c r="C40">
+        <v>10.32</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>10.297570429737407</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>1.9999999999999574E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>8.8819999999999997</v>
+      </c>
+      <c r="B41">
+        <v>12.71</v>
+      </c>
+      <c r="C41">
+        <v>10.37</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>10.346439345295032</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>1.9999999999999574E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>9.2189999999999994</v>
+      </c>
+      <c r="B42">
+        <v>12.5</v>
+      </c>
+      <c r="C42">
+        <v>10.42</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>10.395605500949543</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="1"/>
+        <v>1.9999999999999574E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>9.4749999999999996</v>
+      </c>
+      <c r="B43">
+        <v>12.34</v>
+      </c>
+      <c r="C43">
+        <v>10.46</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>10.432859000953124</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="1"/>
+        <v>3.0000000000001137E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>9.6329999999999991</v>
+      </c>
+      <c r="B44">
+        <v>12.24</v>
+      </c>
+      <c r="C44">
+        <v>10.48</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>10.455810295360862</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="1"/>
+        <v>1.9999999999999574E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="6">
+        <v>9.6790000000000003</v>
+      </c>
+      <c r="B45" s="7">
+        <v>12.21</v>
+      </c>
+      <c r="C45" s="7">
+        <v>10.49</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>10.462486417246161</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="1"/>
+        <v>2.9999999999999361E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>10.025</v>
+      </c>
+      <c r="B46">
+        <v>11.98</v>
+      </c>
+      <c r="C46">
+        <v>10.54</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>10.512617106234373</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="1"/>
+        <v>2.9999999999999361E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
+        <v>10.103999999999999</v>
+      </c>
+      <c r="B47" s="7">
+        <v>11.93</v>
+      </c>
+      <c r="C47" s="7">
+        <v>10.55</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>10.524041984795137</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="1"/>
+        <v>3.0000000000001137E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="6">
+        <v>10.595000000000001</v>
+      </c>
+      <c r="B48" s="7">
+        <v>11.6</v>
+      </c>
+      <c r="C48" s="7">
+        <v>10.62</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>10.594873253605126</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="1"/>
+        <v>2.9999999999999361E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
+        <v>11.032</v>
+      </c>
+      <c r="B49" s="7">
+        <v>11.29</v>
+      </c>
+      <c r="C49" s="7">
+        <v>10.69</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>10.657658335775231</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="1"/>
+        <v>2.9999999999999361E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="6">
+        <v>11.558</v>
+      </c>
+      <c r="B50" s="7">
+        <v>10.9</v>
+      </c>
+      <c r="C50" s="7">
+        <v>10.77</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>10.732909578846886</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="1"/>
+        <v>3.9999999999999147E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="6">
+        <v>12.06</v>
+      </c>
+      <c r="B51" s="7">
+        <v>10.51</v>
+      </c>
+      <c r="C51" s="7">
+        <v>10.84</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>10.804399790184</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="1"/>
+        <v>3.9999999999999147E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="6">
+        <v>12.57</v>
+      </c>
+      <c r="B52" s="7">
+        <v>10.11</v>
+      </c>
+      <c r="C52" s="7">
+        <v>10.92</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>10.876700938407001</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="1"/>
+        <v>3.9999999999999147E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="6">
+        <v>13.103</v>
+      </c>
+      <c r="B53" s="7">
+        <v>9.69</v>
+      </c>
+      <c r="C53" s="7">
+        <v>10.99</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>10.951908198756273</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000924E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="6">
+        <v>13.654999999999999</v>
+      </c>
+      <c r="B54" s="7">
+        <v>9.25</v>
+      </c>
+      <c r="C54" s="7">
+        <v>11.07</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>11.029413487013624</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000924E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="6">
+        <v>14.05</v>
+      </c>
+      <c r="B55" s="7">
+        <v>8.94</v>
+      </c>
+      <c r="C55" s="7">
+        <v>11.13</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>11.084634994875</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000711E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>14.44</v>
+      </c>
+      <c r="B56">
+        <v>8.64</v>
+      </c>
+      <c r="C56">
+        <v>11.19</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>11.138960903616001</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="1"/>
+        <v>4.9999999999998934E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="6">
+        <v>14.525</v>
+      </c>
+      <c r="B57" s="7">
+        <v>8.58</v>
+      </c>
+      <c r="C57" s="7">
+        <v>11.2</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="0"/>
+        <v>11.150775204046877</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="1"/>
+        <v>4.9999999999998934E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="6">
+        <v>14.904999999999999</v>
+      </c>
+      <c r="B58" s="7">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="C58" s="7">
+        <v>11.26</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="0"/>
+        <v>11.203478304732377</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="1"/>
+        <v>6.0000000000000497E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="6">
+        <v>15.315</v>
+      </c>
+      <c r="B59" s="7">
+        <v>7.99</v>
+      </c>
+      <c r="C59" s="7">
+        <v>11.32</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="0"/>
+        <v>11.260133343619126</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="1"/>
+        <v>6.0000000000000497E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="6">
+        <v>15.975</v>
+      </c>
+      <c r="B60" s="7">
+        <v>7.52</v>
+      </c>
+      <c r="C60" s="7">
+        <v>11.41</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="0"/>
+        <v>11.350877795015624</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="1"/>
+        <v>6.0000000000000497E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="6">
+        <v>16.763999999999999</v>
+      </c>
+      <c r="B61" s="7">
+        <v>7.02</v>
+      </c>
+      <c r="C61" s="7">
+        <v>11.52</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="0"/>
+        <v>11.458617767048256</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="1"/>
+        <v>5.9999999999998721E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>16.783999999999999</v>
+      </c>
+      <c r="B62">
+        <v>7.01</v>
+      </c>
+      <c r="C62">
+        <v>11.52</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="0"/>
+        <v>11.461338309021695</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="1"/>
+        <v>5.9999999999998721E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="6">
+        <v>17.504000000000001</v>
+      </c>
+      <c r="B63" s="7">
+        <v>6.6</v>
+      </c>
+      <c r="C63" s="7">
+        <v>11.63</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="0"/>
+        <v>11.558930939559938</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="1"/>
+        <v>7.0000000000000284E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="6">
+        <v>18.689</v>
+      </c>
+      <c r="B64" s="7">
+        <v>6.08</v>
+      </c>
+      <c r="C64" s="7">
+        <v>11.79</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="0"/>
+        <v>11.718078097383231</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="1"/>
+        <v>6.9999999999998508E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="6">
+        <v>19.318000000000001</v>
+      </c>
+      <c r="B65" s="7">
+        <v>5.85</v>
+      </c>
+      <c r="C65" s="7">
+        <v>11.88</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="0"/>
+        <v>11.801805735374568</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="1"/>
+        <v>8.0000000000000071E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>19.616</v>
+      </c>
+      <c r="B66">
+        <v>5.75</v>
+      </c>
+      <c r="C66">
+        <v>11.92</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="0"/>
+        <v>11.841291535663105</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="1"/>
+        <v>8.0000000000000071E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="6">
+        <v>20.038</v>
+      </c>
+      <c r="B67" s="7">
+        <v>5.62</v>
+      </c>
+      <c r="C67" s="7">
+        <v>11.97</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ref="E67:E130" si="2">SUMPRODUCT($H$2:$H$12*A67^$I$2:$I$12)</f>
+        <v>11.897007446905127</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ref="F67:F130" si="3">C67-ROUND(E67,2)</f>
+        <v>7.0000000000000284E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="6">
+        <v>20.792999999999999</v>
+      </c>
+      <c r="B68" s="7">
+        <v>5.4</v>
+      </c>
+      <c r="C68" s="7">
+        <v>12.08</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="2"/>
+        <v>11.996101860982742</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="3"/>
+        <v>8.0000000000000071E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>21.027999999999999</v>
+      </c>
+      <c r="B69">
+        <v>5.33</v>
+      </c>
+      <c r="C69">
+        <v>12.11</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="2"/>
+        <v>12.02679183618605</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="3"/>
+        <v>8.0000000000000071E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="6">
+        <v>21.564</v>
+      </c>
+      <c r="B70" s="7">
+        <v>5.19</v>
+      </c>
+      <c r="C70" s="7">
+        <v>12.18</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="2"/>
+        <v>12.096516950945855</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="3"/>
+        <v>8.0000000000000071E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="6">
+        <v>22.169</v>
+      </c>
+      <c r="B71" s="7">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="C71" s="7">
+        <v>12.26</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="2"/>
+        <v>12.174758985547191</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="3"/>
+        <v>8.9999999999999858E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>22.530999999999999</v>
+      </c>
+      <c r="B72">
+        <v>4.92</v>
+      </c>
+      <c r="C72">
+        <v>12.31</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="2"/>
+        <v>12.221341652252709</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="3"/>
+        <v>8.9999999999999858E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="6">
+        <v>22.81</v>
+      </c>
+      <c r="B73" s="7">
+        <v>4.84</v>
+      </c>
+      <c r="C73" s="7">
+        <v>12.34</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="2"/>
+        <v>12.257124385959001</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="3"/>
+        <v>8.0000000000000071E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="6">
+        <v>23.361999999999998</v>
+      </c>
+      <c r="B74" s="7">
+        <v>4.67</v>
+      </c>
+      <c r="C74" s="7">
+        <v>12.42</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="2"/>
+        <v>12.327613590126072</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="3"/>
+        <v>8.9999999999999858E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="6">
+        <v>23.89</v>
+      </c>
+      <c r="B75" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="C75" s="7">
+        <v>12.48</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="2"/>
+        <v>12.394655950131</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="3"/>
+        <v>8.9999999999999858E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>24.288</v>
+      </c>
+      <c r="B76">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="C76">
+        <v>12.53</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="2"/>
+        <v>12.444944173744128</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="3"/>
+        <v>8.9999999999999858E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="6">
+        <v>24.416</v>
+      </c>
+      <c r="B77" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="C77" s="7">
+        <v>12.55</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="2"/>
+        <v>12.461071986376703</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="3"/>
+        <v>8.9999999999999858E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="6">
+        <v>25.01</v>
+      </c>
+      <c r="B78" s="7">
+        <v>4.05</v>
+      </c>
+      <c r="C78" s="7">
+        <v>12.62</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="2"/>
+        <v>12.535626182499</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="3"/>
+        <v>8.0000000000000071E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="6">
+        <v>25.071000000000002</v>
+      </c>
+      <c r="B79" s="7">
+        <v>4.03</v>
+      </c>
+      <c r="C79" s="7">
+        <v>12.63</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="2"/>
+        <v>12.543255471967088</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="3"/>
+        <v>9.0000000000001634E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="6">
+        <v>25.481000000000002</v>
+      </c>
+      <c r="B80" s="7">
+        <v>3.83</v>
+      </c>
+      <c r="C80" s="7">
+        <v>12.68</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="2"/>
+        <v>12.594403845040359</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="3"/>
+        <v>8.9999999999999858E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="6">
+        <v>26.113</v>
+      </c>
+      <c r="B81" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="C81" s="7">
+        <v>12.76</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="2"/>
+        <v>12.672801577175104</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="3"/>
+        <v>8.9999999999999858E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="6">
+        <v>26.849</v>
+      </c>
+      <c r="B82" s="7">
+        <v>3.04</v>
+      </c>
+      <c r="C82" s="7">
+        <v>12.85</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="2"/>
+        <v>12.76341711296195</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="3"/>
+        <v>8.9999999999999858E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="6">
+        <v>27.577000000000002</v>
+      </c>
+      <c r="B83" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="C83" s="7">
+        <v>12.94</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="2"/>
+        <v>12.852322384250968</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="3"/>
+        <v>8.9999999999999858E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>27.934000000000001</v>
+      </c>
+      <c r="B84">
+        <v>2.21</v>
+      </c>
+      <c r="C84">
+        <v>12.98</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="2"/>
+        <v>12.895655852783497</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="3"/>
+        <v>8.0000000000000071E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="6">
+        <v>28.082999999999998</v>
+      </c>
+      <c r="B85" s="7">
+        <v>2.08</v>
+      </c>
+      <c r="C85" s="7">
+        <v>13</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="2"/>
+        <v>12.913690271352213</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="3"/>
+        <v>8.9999999999999858E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="6">
+        <v>28.588999999999999</v>
+      </c>
+      <c r="B86" s="7">
+        <v>1.61</v>
+      </c>
+      <c r="C86" s="7">
+        <v>13.06</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="2"/>
+        <v>12.97470777369953</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="3"/>
+        <v>8.9999999999999858E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="6">
+        <v>29.914999999999999</v>
+      </c>
+      <c r="B87" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="C87" s="7">
+        <v>13.21</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="2"/>
+        <v>13.132939515364125</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="3"/>
+        <v>8.0000000000000071E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="6">
+        <v>31.478999999999999</v>
+      </c>
+      <c r="B88" s="7">
+        <v>-2.5499999999999998</v>
+      </c>
+      <c r="C88" s="7">
+        <v>13.38</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="2"/>
+        <v>13.31645313048476</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="3"/>
+        <v>6.0000000000000497E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>31.863</v>
+      </c>
+      <c r="B89">
+        <v>-3.37</v>
+      </c>
+      <c r="C89">
+        <v>13.43</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="2"/>
+        <v>13.360991603347351</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="3"/>
+        <v>7.0000000000000284E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>32.765000000000001</v>
+      </c>
+      <c r="B90">
+        <v>-5.38</v>
+      </c>
+      <c r="C90">
+        <v>13.52</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="2"/>
+        <v>13.464803155702874</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="3"/>
+        <v>5.9999999999998721E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="6">
+        <v>32.823999999999998</v>
+      </c>
+      <c r="B91" s="7">
+        <v>-5.52</v>
+      </c>
+      <c r="C91" s="7">
+        <v>13.53</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="2"/>
+        <v>13.471553945227777</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="3"/>
+        <v>5.9999999999998721E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>33.512999999999998</v>
+      </c>
+      <c r="B92">
+        <v>-7.07</v>
+      </c>
+      <c r="C92">
+        <v>13.6</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="2"/>
+        <v>13.550029138863302</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="3"/>
+        <v>4.9999999999998934E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="6">
+        <v>34.027000000000001</v>
+      </c>
+      <c r="B93" s="7">
+        <v>-8.17</v>
+      </c>
+      <c r="C93" s="7">
+        <v>13.65</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="2"/>
+        <v>13.608139252222315</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="3"/>
+        <v>4.0000000000000924E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>34.195999999999998</v>
+      </c>
+      <c r="B94">
+        <v>-8.51</v>
+      </c>
+      <c r="C94">
+        <v>13.67</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="2"/>
+        <v>13.627164496438464</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="3"/>
+        <v>3.9999999999999147E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="6">
+        <v>34.781999999999996</v>
+      </c>
+      <c r="B95" s="7">
+        <v>-9.6300000000000008</v>
+      </c>
+      <c r="C95" s="7">
+        <v>13.73</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="2"/>
+        <v>13.692822655940232</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="3"/>
+        <v>4.0000000000000924E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="6">
+        <v>35.750999999999998</v>
+      </c>
+      <c r="B96" s="7">
+        <v>-11.21</v>
+      </c>
+      <c r="C96" s="7">
+        <v>13.82</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="2"/>
+        <v>13.800332030730249</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="3"/>
+        <v>1.9999999999999574E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>36.237000000000002</v>
+      </c>
+      <c r="B97">
+        <v>-11.97</v>
+      </c>
+      <c r="C97">
+        <v>13.87</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="2"/>
+        <v>13.853753363035947</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="3"/>
+        <v>1.9999999999999574E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>36.575000000000003</v>
+      </c>
+      <c r="B98">
+        <v>-12.49</v>
+      </c>
+      <c r="C98">
+        <v>13.9</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="2"/>
+        <v>13.890709127390624</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="3"/>
+        <v>9.9999999999997868E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>36.850999999999999</v>
+      </c>
+      <c r="B99">
+        <v>-12.91</v>
+      </c>
+      <c r="C99">
+        <v>13.93</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="2"/>
+        <v>13.920765761396948</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="3"/>
+        <v>9.9999999999997868E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>37.143000000000001</v>
+      </c>
+      <c r="B100">
+        <v>-13.34</v>
+      </c>
+      <c r="C100">
+        <v>13.95</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="2"/>
+        <v>13.952446956836793</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>37.418999999999997</v>
+      </c>
+      <c r="B101">
+        <v>-13.74</v>
+      </c>
+      <c r="C101">
+        <v>13.98</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="2"/>
+        <v>13.982280669568942</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>37.445</v>
+      </c>
+      <c r="B102">
+        <v>-13.78</v>
+      </c>
+      <c r="C102">
+        <v>13.98</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="2"/>
+        <v>13.985085501103876</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="3"/>
+        <v>-9.9999999999997868E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>37.671999999999997</v>
+      </c>
+      <c r="B103">
+        <v>-14.11</v>
+      </c>
+      <c r="C103">
+        <v>14</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="2"/>
+        <v>14.009532916311553</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="3"/>
+        <v>-9.9999999999997868E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="6">
+        <v>37.954000000000001</v>
+      </c>
+      <c r="B104" s="7">
+        <v>-14.51</v>
+      </c>
+      <c r="C104" s="7">
+        <v>14.03</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="2"/>
+        <v>14.039801361273335</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="3"/>
+        <v>-9.9999999999997868E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>37.99</v>
+      </c>
+      <c r="B105">
+        <v>-14.56</v>
+      </c>
+      <c r="C105">
+        <v>14.03</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="2"/>
+        <v>14.043657248600999</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="3"/>
+        <v>-9.9999999999997868E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>38.603999999999999</v>
+      </c>
+      <c r="B106">
+        <v>-15.41</v>
+      </c>
+      <c r="C106">
+        <v>14.08</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="2"/>
+        <v>14.109136373027138</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="3"/>
+        <v>-2.9999999999999361E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>39.777999999999999</v>
+      </c>
+      <c r="B107">
+        <v>-16.97</v>
+      </c>
+      <c r="C107">
+        <v>14.18</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="2"/>
+        <v>14.232832126461048</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="3"/>
+        <v>-5.0000000000000711E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>39.789000000000001</v>
+      </c>
+      <c r="B108">
+        <v>-16.98</v>
+      </c>
+      <c r="C108">
+        <v>14.18</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="2"/>
+        <v>14.233981754273932</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="3"/>
+        <v>-5.0000000000000711E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>40.127000000000002</v>
+      </c>
+      <c r="B109">
+        <v>-17.41</v>
+      </c>
+      <c r="C109">
+        <v>14.21</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="2"/>
+        <v>14.269221785071617</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="3"/>
+        <v>-5.9999999999998721E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>40.448999999999998</v>
+      </c>
+      <c r="B110">
+        <v>-17.82</v>
+      </c>
+      <c r="C110">
+        <v>14.24</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="2"/>
+        <v>14.302640556761151</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="3"/>
+        <v>-6.0000000000000497E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>40.732999999999997</v>
+      </c>
+      <c r="B111">
+        <v>-18.170000000000002</v>
+      </c>
+      <c r="C111">
+        <v>14.26</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="2"/>
+        <v>14.331991358087162</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="3"/>
+        <v>-7.0000000000000284E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>41.024000000000001</v>
+      </c>
+      <c r="B112">
+        <v>-18.53</v>
+      </c>
+      <c r="C112">
+        <v>14.28</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="2"/>
+        <v>14.361944751538177</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="3"/>
+        <v>-8.0000000000000071E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>41.331000000000003</v>
+      </c>
+      <c r="B113">
+        <v>-18.899999999999999</v>
+      </c>
+      <c r="C113">
+        <v>14.31</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="2"/>
+        <v>14.393412318132309</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="3"/>
+        <v>-8.0000000000000071E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>41.869</v>
+      </c>
+      <c r="B114">
+        <v>-19.53</v>
+      </c>
+      <c r="C114">
+        <v>14.35</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="2"/>
+        <v>14.448228195362091</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="3"/>
+        <v>-9.9999999999999645E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>41.93</v>
+      </c>
+      <c r="B115">
+        <v>-19.61</v>
+      </c>
+      <c r="C115">
+        <v>14.35</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="2"/>
+        <v>14.454416882943001</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="3"/>
+        <v>-9.9999999999999645E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>42.506</v>
+      </c>
+      <c r="B116">
+        <v>-20.27</v>
+      </c>
+      <c r="C116">
+        <v>14.4</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="2"/>
+        <v>14.512587836309784</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="3"/>
+        <v>-0.10999999999999943</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>43.249000000000002</v>
+      </c>
+      <c r="B117">
+        <v>-21.11</v>
+      </c>
+      <c r="C117">
+        <v>14.45</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="2"/>
+        <v>14.586911182832752</v>
+      </c>
+      <c r="F117">
+        <f t="shared" si="3"/>
+        <v>-0.14000000000000057</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>43.801000000000002</v>
+      </c>
+      <c r="B118">
+        <v>-21.72</v>
+      </c>
+      <c r="C118">
+        <v>14.49</v>
+      </c>
+      <c r="E118">
+        <f t="shared" si="2"/>
+        <v>14.641607011948601</v>
+      </c>
+      <c r="F118">
+        <f t="shared" si="3"/>
+        <v>-0.15000000000000036</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>44.146000000000001</v>
+      </c>
+      <c r="B119">
+        <v>-22.09</v>
+      </c>
+      <c r="C119">
+        <v>14.51</v>
+      </c>
+      <c r="E119">
+        <f t="shared" si="2"/>
+        <v>14.675565625575864</v>
+      </c>
+      <c r="F119">
+        <f t="shared" si="3"/>
+        <v>-0.16999999999999993</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>44.554000000000002</v>
+      </c>
+      <c r="B120">
+        <v>-22.53</v>
+      </c>
+      <c r="C120">
+        <v>14.54</v>
+      </c>
+      <c r="E120">
+        <f t="shared" si="2"/>
+        <v>14.715500335456536</v>
+      </c>
+      <c r="F120">
+        <f t="shared" si="3"/>
+        <v>-0.18000000000000149</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>45.350999999999999</v>
+      </c>
+      <c r="B121">
+        <v>-23.36</v>
+      </c>
+      <c r="C121">
+        <v>14.59</v>
+      </c>
+      <c r="E121">
+        <f t="shared" si="2"/>
+        <v>14.79280507902145</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="3"/>
+        <v>-0.19999999999999929</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>45.902999999999999</v>
+      </c>
+      <c r="B122">
+        <v>-23.92</v>
+      </c>
+      <c r="C122">
+        <v>14.63</v>
+      </c>
+      <c r="E122">
+        <f t="shared" si="2"/>
+        <v>14.845798213070672</v>
+      </c>
+      <c r="F122">
+        <f t="shared" si="3"/>
+        <v>-0.21999999999999886</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>46.286000000000001</v>
+      </c>
+      <c r="B123">
+        <v>-24.3</v>
+      </c>
+      <c r="C123">
+        <v>14.65</v>
+      </c>
+      <c r="E123">
+        <f t="shared" si="2"/>
+        <v>14.882302883158346</v>
+      </c>
+      <c r="F123">
+        <f t="shared" si="3"/>
+        <v>-0.23000000000000043</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>47.061</v>
+      </c>
+      <c r="B124">
+        <v>-25.04</v>
+      </c>
+      <c r="C124">
+        <v>14.69</v>
+      </c>
+      <c r="E124">
+        <f t="shared" si="2"/>
+        <v>14.955506595512016</v>
+      </c>
+      <c r="F124">
+        <f t="shared" si="3"/>
+        <v>-0.27000000000000135</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>47.811999999999998</v>
+      </c>
+      <c r="B125">
+        <v>-25.73</v>
+      </c>
+      <c r="C125">
+        <v>14.73</v>
+      </c>
+      <c r="E125">
+        <f t="shared" si="2"/>
+        <v>15.025593966708673</v>
+      </c>
+      <c r="F125">
+        <f t="shared" si="3"/>
+        <v>-0.29999999999999893</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>48.289000000000001</v>
+      </c>
+      <c r="B126">
+        <v>-26.15</v>
+      </c>
+      <c r="C126">
+        <v>14.75</v>
+      </c>
+      <c r="E126">
+        <f t="shared" si="2"/>
+        <v>15.06967486823843</v>
+      </c>
+      <c r="F126">
+        <f t="shared" si="3"/>
+        <v>-0.32000000000000028</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>49.005000000000003</v>
+      </c>
+      <c r="B127">
+        <v>-26.76</v>
+      </c>
+      <c r="C127">
+        <v>14.78</v>
+      </c>
+      <c r="E127">
+        <f t="shared" si="2"/>
+        <v>15.135205966324873</v>
+      </c>
+      <c r="F127">
+        <f t="shared" si="3"/>
+        <v>-0.36000000000000121</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>49.936999999999998</v>
+      </c>
+      <c r="B128">
+        <v>-27.51</v>
+      </c>
+      <c r="C128">
+        <v>14.82</v>
+      </c>
+      <c r="E128">
+        <f t="shared" si="2"/>
+        <v>15.219358523500047</v>
+      </c>
+      <c r="F128">
+        <f t="shared" si="3"/>
+        <v>-0.40000000000000036</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>51.8</v>
+      </c>
+      <c r="B129">
+        <v>-28.91</v>
+      </c>
+      <c r="C129">
+        <v>14.87</v>
+      </c>
+      <c r="E129">
+        <f t="shared" si="2"/>
+        <v>15.383664167999999</v>
+      </c>
+      <c r="F129">
+        <f t="shared" si="3"/>
+        <v>-0.51000000000000156</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>52.305999999999997</v>
+      </c>
+      <c r="B130">
+        <v>-29.27</v>
+      </c>
+      <c r="C130">
+        <v>14.88</v>
+      </c>
+      <c r="E130">
+        <f t="shared" si="2"/>
+        <v>15.427386510531385</v>
+      </c>
+      <c r="F130">
+        <f t="shared" si="3"/>
+        <v>-0.54999999999999893</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>53.328000000000003</v>
+      </c>
+      <c r="B131">
+        <v>-29.95</v>
+      </c>
+      <c r="C131">
+        <v>14.9</v>
+      </c>
+      <c r="E131">
+        <f t="shared" ref="E131:E194" si="4">SUMPRODUCT($H$2:$H$12*A131^$I$2:$I$12)</f>
+        <v>15.514512452456446</v>
+      </c>
+      <c r="F131">
+        <f t="shared" ref="F131:F194" si="5">C131-ROUND(E131,2)</f>
+        <v>-0.60999999999999943</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>54.07</v>
+      </c>
+      <c r="B132">
+        <v>-30.43</v>
+      </c>
+      <c r="C132">
+        <v>14.9</v>
+      </c>
+      <c r="E132">
+        <f t="shared" si="4"/>
+        <v>15.576773905857001</v>
+      </c>
+      <c r="F132">
+        <f t="shared" si="5"/>
+        <v>-0.67999999999999972</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>54.414999999999999</v>
+      </c>
+      <c r="B133">
+        <v>-30.64</v>
+      </c>
+      <c r="C133">
+        <v>14.9</v>
+      </c>
+      <c r="E133">
+        <f t="shared" si="4"/>
+        <v>15.605437273076625</v>
+      </c>
+      <c r="F133">
+        <f t="shared" si="5"/>
+        <v>-0.70999999999999908</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>54.76</v>
+      </c>
+      <c r="B134">
+        <v>-30.85</v>
+      </c>
+      <c r="C134">
+        <v>14.9</v>
+      </c>
+      <c r="E134">
+        <f t="shared" si="4"/>
+        <v>15.633918949824</v>
+      </c>
+      <c r="F134">
+        <f t="shared" si="5"/>
+        <v>-0.73000000000000043</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>55.71</v>
+      </c>
+      <c r="B135">
+        <v>-31.4</v>
+      </c>
+      <c r="C135">
+        <v>14.88</v>
+      </c>
+      <c r="E135">
+        <f t="shared" si="4"/>
+        <v>15.711405755589002</v>
+      </c>
+      <c r="F135">
+        <f t="shared" si="5"/>
+        <v>-0.83000000000000007</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>56.116999999999997</v>
+      </c>
+      <c r="B136">
+        <v>-31.62</v>
+      </c>
+      <c r="C136">
+        <v>14.86</v>
+      </c>
+      <c r="E136">
+        <f t="shared" si="4"/>
+        <v>15.744179349246387</v>
+      </c>
+      <c r="F136">
+        <f t="shared" si="5"/>
+        <v>-0.88000000000000078</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>57.52</v>
+      </c>
+      <c r="B137">
+        <v>-32.36</v>
+      </c>
+      <c r="C137">
+        <v>14.73</v>
+      </c>
+      <c r="E137">
+        <f t="shared" si="4"/>
+        <v>15.855201940991998</v>
+      </c>
+      <c r="F137">
+        <f t="shared" si="5"/>
+        <v>-1.129999999999999</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>57.948999999999998</v>
+      </c>
+      <c r="B138">
+        <v>-32.44</v>
+      </c>
+      <c r="C138">
+        <v>14.67</v>
+      </c>
+      <c r="E138">
+        <f t="shared" si="4"/>
+        <v>15.888543278958648</v>
+      </c>
+      <c r="F138">
+        <f t="shared" si="5"/>
+        <v>-1.2200000000000006</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>58.417000000000002</v>
+      </c>
+      <c r="B139">
+        <v>-32.61</v>
+      </c>
+      <c r="C139">
+        <v>14.6</v>
+      </c>
+      <c r="E139">
+        <f t="shared" si="4"/>
+        <v>15.924590773402288</v>
+      </c>
+      <c r="F139">
+        <f t="shared" si="5"/>
+        <v>-1.3200000000000003</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>58.860999999999997</v>
+      </c>
+      <c r="B140">
+        <v>-32.770000000000003</v>
+      </c>
+      <c r="C140">
+        <v>14.53</v>
+      </c>
+      <c r="E140">
+        <f t="shared" si="4"/>
+        <v>15.95847576726862</v>
+      </c>
+      <c r="F140">
+        <f t="shared" si="5"/>
+        <v>-1.4300000000000015</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>59.44</v>
+      </c>
+      <c r="B141">
+        <v>-32.97</v>
+      </c>
+      <c r="C141">
+        <v>14.42</v>
+      </c>
+      <c r="E141">
+        <f t="shared" si="4"/>
+        <v>16.002203567616</v>
+      </c>
+      <c r="F141">
+        <f t="shared" si="5"/>
+        <v>-1.58</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>59.796999999999997</v>
+      </c>
+      <c r="B142">
+        <v>-33.08</v>
+      </c>
+      <c r="C142">
+        <v>14.35</v>
+      </c>
+      <c r="E142">
+        <f t="shared" si="4"/>
+        <v>16.028905265345426</v>
+      </c>
+      <c r="F142">
+        <f t="shared" si="5"/>
+        <v>-1.6800000000000015</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>60.698</v>
+      </c>
+      <c r="B143">
+        <v>-33.36</v>
+      </c>
+      <c r="C143">
+        <v>14.15</v>
+      </c>
+      <c r="E143">
+        <f t="shared" si="4"/>
+        <v>16.095411240811607</v>
+      </c>
+      <c r="F143">
+        <f t="shared" si="5"/>
+        <v>-1.9500000000000011</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>61.127000000000002</v>
+      </c>
+      <c r="B144">
+        <v>-33.479999999999997</v>
+      </c>
+      <c r="C144">
+        <v>14.05</v>
+      </c>
+      <c r="E144">
+        <f t="shared" si="4"/>
+        <v>16.126631267944617</v>
+      </c>
+      <c r="F144">
+        <f t="shared" si="5"/>
+        <v>-2.0799999999999983</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>61.947000000000003</v>
+      </c>
+      <c r="B145">
+        <v>-33.71</v>
+      </c>
+      <c r="C145">
+        <v>13.85</v>
+      </c>
+      <c r="E145">
+        <f t="shared" si="4"/>
+        <v>16.185503188274879</v>
+      </c>
+      <c r="F145">
+        <f t="shared" si="5"/>
+        <v>-2.3400000000000016</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>62.468000000000004</v>
+      </c>
+      <c r="B146">
+        <v>-33.86</v>
+      </c>
+      <c r="C146">
+        <v>13.72</v>
+      </c>
+      <c r="E146">
+        <f t="shared" si="4"/>
+        <v>16.222359568632768</v>
+      </c>
+      <c r="F146">
+        <f t="shared" si="5"/>
+        <v>-2.4999999999999982</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>63.088999999999999</v>
+      </c>
+      <c r="B147">
+        <v>-34.04</v>
+      </c>
+      <c r="C147">
+        <v>13.55</v>
+      </c>
+      <c r="E147">
+        <f t="shared" si="4"/>
+        <v>16.265731626626032</v>
+      </c>
+      <c r="F147">
+        <f t="shared" si="5"/>
+        <v>-2.7199999999999989</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>63.606000000000002</v>
+      </c>
+      <c r="B148">
+        <v>-34.19</v>
+      </c>
+      <c r="C148">
+        <v>13.41</v>
+      </c>
+      <c r="E148">
+        <f t="shared" si="4"/>
+        <v>16.301375786250986</v>
+      </c>
+      <c r="F148">
+        <f t="shared" si="5"/>
+        <v>-2.8900000000000006</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>64.275999999999996</v>
+      </c>
+      <c r="B149">
+        <v>-34.39</v>
+      </c>
+      <c r="C149">
+        <v>13.22</v>
+      </c>
+      <c r="E149">
+        <f t="shared" si="4"/>
+        <v>16.346939359583427</v>
+      </c>
+      <c r="F149">
+        <f t="shared" si="5"/>
+        <v>-3.1300000000000008</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>65.293000000000006</v>
+      </c>
+      <c r="B150">
+        <v>-34.72</v>
+      </c>
+      <c r="C150">
+        <v>12.93</v>
+      </c>
+      <c r="E150">
+        <f t="shared" si="4"/>
+        <v>16.414739949891246</v>
+      </c>
+      <c r="F150">
+        <f t="shared" si="5"/>
+        <v>-3.4800000000000004</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>66.921999999999997</v>
+      </c>
+      <c r="B151">
+        <v>-35.35</v>
+      </c>
+      <c r="C151">
+        <v>12.46</v>
+      </c>
+      <c r="E151">
+        <f t="shared" si="4"/>
+        <v>16.519907753190552</v>
+      </c>
+      <c r="F151">
+        <f t="shared" si="5"/>
+        <v>-4.0599999999999987</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>68.155000000000001</v>
+      </c>
+      <c r="B152">
+        <v>-35.92</v>
+      </c>
+      <c r="C152">
+        <v>12.12</v>
+      </c>
+      <c r="E152">
+        <f t="shared" si="4"/>
+        <v>16.596685520176127</v>
+      </c>
+      <c r="F152">
+        <f t="shared" si="5"/>
+        <v>-4.4800000000000022</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>69.527000000000001</v>
+      </c>
+      <c r="B153">
+        <v>-36.69</v>
+      </c>
+      <c r="C153">
+        <v>11.69</v>
+      </c>
+      <c r="E153">
+        <f t="shared" si="4"/>
+        <v>16.679242985333818</v>
+      </c>
+      <c r="F153">
+        <f t="shared" si="5"/>
+        <v>-4.99</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>70.662999999999997</v>
+      </c>
+      <c r="B154">
+        <v>-37.46</v>
+      </c>
+      <c r="C154">
+        <v>11.27</v>
+      </c>
+      <c r="E154">
+        <f t="shared" si="4"/>
+        <v>16.745296557675751</v>
+      </c>
+      <c r="F154">
+        <f t="shared" si="5"/>
+        <v>-5.48</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>71.695999999999998</v>
+      </c>
+      <c r="B155">
+        <v>-38.21</v>
+      </c>
+      <c r="C155">
+        <v>10.84</v>
+      </c>
+      <c r="E155">
+        <f t="shared" si="4"/>
+        <v>16.803542024638464</v>
+      </c>
+      <c r="F155">
+        <f t="shared" si="5"/>
+        <v>-5.9600000000000009</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>72.769000000000005</v>
+      </c>
+      <c r="B156">
+        <v>-39.049999999999997</v>
+      </c>
+      <c r="C156">
+        <v>10.34</v>
+      </c>
+      <c r="E156">
+        <f t="shared" si="4"/>
+        <v>16.862200906667393</v>
+      </c>
+      <c r="F156">
+        <f t="shared" si="5"/>
+        <v>-6.52</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>73.534999999999997</v>
+      </c>
+      <c r="B157">
+        <v>-39.67</v>
+      </c>
+      <c r="C157">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="E157">
+        <f t="shared" si="4"/>
+        <v>16.902924383594627</v>
+      </c>
+      <c r="F157">
+        <f t="shared" si="5"/>
+        <v>-6.9399999999999977</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>75.052000000000007</v>
+      </c>
+      <c r="B158">
+        <v>-40.93</v>
+      </c>
+      <c r="C158">
+        <v>9.14</v>
+      </c>
+      <c r="E158">
+        <f t="shared" si="4"/>
+        <v>16.980729269059392</v>
+      </c>
+      <c r="F158">
+        <f t="shared" si="5"/>
+        <v>-7.84</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>76.216999999999999</v>
+      </c>
+      <c r="B159">
+        <v>-41.93</v>
+      </c>
+      <c r="C159">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="E159">
+        <f t="shared" si="4"/>
+        <v>17.037903424089684</v>
+      </c>
+      <c r="F159">
+        <f t="shared" si="5"/>
+        <v>-8.59</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>77.653999999999996</v>
+      </c>
+      <c r="B160">
+        <v>-43.16</v>
+      </c>
+      <c r="C160">
+        <v>7.67</v>
+      </c>
+      <c r="E160">
+        <f t="shared" si="4"/>
+        <v>17.105326990277735</v>
+      </c>
+      <c r="F160">
+        <f t="shared" si="5"/>
+        <v>-9.44</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>79.738</v>
+      </c>
+      <c r="B161">
+        <v>-44.9</v>
+      </c>
+      <c r="C161">
+        <v>6.74</v>
+      </c>
+      <c r="E161">
+        <f t="shared" si="4"/>
+        <v>17.196990757024729</v>
+      </c>
+      <c r="F161">
+        <f t="shared" si="5"/>
+        <v>-10.459999999999999</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>80.923000000000002</v>
+      </c>
+      <c r="B162">
+        <v>-45.84</v>
+      </c>
+      <c r="C162">
+        <v>6.32</v>
+      </c>
+      <c r="E162">
+        <f t="shared" si="4"/>
+        <v>17.245864993309535</v>
+      </c>
+      <c r="F162">
+        <f t="shared" si="5"/>
+        <v>-10.93</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>81.81</v>
+      </c>
+      <c r="B163">
+        <v>-46.5</v>
+      </c>
+      <c r="C163">
+        <v>6.05</v>
+      </c>
+      <c r="E163">
+        <f t="shared" si="4"/>
+        <v>17.280900146258997</v>
+      </c>
+      <c r="F163">
+        <f t="shared" si="5"/>
+        <v>-11.23</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>82.751999999999995</v>
+      </c>
+      <c r="B164">
+        <v>-47.16</v>
+      </c>
+      <c r="C164">
+        <v>5.8</v>
+      </c>
+      <c r="E164">
+        <f t="shared" si="4"/>
+        <v>17.316651014356992</v>
+      </c>
+      <c r="F164">
+        <f t="shared" si="5"/>
+        <v>-11.52</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>83.736999999999995</v>
+      </c>
+      <c r="B165">
+        <v>-47.8</v>
+      </c>
+      <c r="C165">
+        <v>5.58</v>
+      </c>
+      <c r="E165">
+        <f t="shared" si="4"/>
+        <v>17.35242367020345</v>
+      </c>
+      <c r="F165">
+        <f t="shared" si="5"/>
+        <v>-11.770000000000001</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>84.284999999999997</v>
+      </c>
+      <c r="B166">
+        <v>-48.13</v>
+      </c>
+      <c r="C166">
+        <v>5.47</v>
+      </c>
+      <c r="E166">
+        <f t="shared" si="4"/>
+        <v>17.371610893150876</v>
+      </c>
+      <c r="F166">
+        <f t="shared" si="5"/>
+        <v>-11.900000000000002</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>85.215999999999994</v>
+      </c>
+      <c r="B167">
+        <v>-48.64</v>
+      </c>
+      <c r="C167">
+        <v>5.32</v>
+      </c>
+      <c r="E167">
+        <f t="shared" si="4"/>
+        <v>17.403033299042303</v>
+      </c>
+      <c r="F167">
+        <f t="shared" si="5"/>
+        <v>-12.079999999999998</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>85.46</v>
+      </c>
+      <c r="B168">
+        <v>-48.76</v>
+      </c>
+      <c r="C168">
+        <v>5.29</v>
+      </c>
+      <c r="E168">
+        <f t="shared" si="4"/>
+        <v>17.411023484664003</v>
+      </c>
+      <c r="F168">
+        <f t="shared" si="5"/>
+        <v>-12.120000000000001</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>85.545000000000002</v>
+      </c>
+      <c r="B169">
+        <v>-48.8</v>
+      </c>
+      <c r="C169">
+        <v>5.28</v>
+      </c>
+      <c r="E169">
+        <f t="shared" si="4"/>
+        <v>17.413783006746375</v>
+      </c>
+      <c r="F169">
+        <f t="shared" si="5"/>
+        <v>-12.129999999999999</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>86.225999999999999</v>
+      </c>
+      <c r="B170">
+        <v>-49.11</v>
+      </c>
+      <c r="C170">
+        <v>5.19</v>
+      </c>
+      <c r="E170">
+        <f t="shared" si="4"/>
+        <v>17.435444477248826</v>
+      </c>
+      <c r="F170">
+        <f t="shared" si="5"/>
+        <v>-12.25</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>87.099000000000004</v>
+      </c>
+      <c r="B171">
+        <v>-49.45</v>
+      </c>
+      <c r="C171">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="E171">
+        <f t="shared" si="4"/>
+        <v>17.462047967368701</v>
+      </c>
+      <c r="F171">
+        <f t="shared" si="5"/>
+        <v>-12.350000000000001</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>87.96</v>
+      </c>
+      <c r="B172">
+        <v>-49.71</v>
+      </c>
+      <c r="C172">
+        <v>5.05</v>
+      </c>
+      <c r="E172">
+        <f t="shared" si="4"/>
+        <v>17.486999897663999</v>
+      </c>
+      <c r="F172">
+        <f t="shared" si="5"/>
+        <v>-12.439999999999998</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>88.694000000000003</v>
+      </c>
+      <c r="B173">
+        <v>-49.87</v>
+      </c>
+      <c r="C173">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="E173">
+        <f t="shared" si="4"/>
+        <v>17.507260124240617</v>
+      </c>
+      <c r="F173">
+        <f t="shared" si="5"/>
+        <v>-12.490000000000002</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>89.061999999999998</v>
+      </c>
+      <c r="B174">
+        <v>-49.92</v>
+      </c>
+      <c r="C174">
+        <v>5.01</v>
+      </c>
+      <c r="E174">
+        <f t="shared" si="4"/>
+        <v>17.517066761013673</v>
+      </c>
+      <c r="F174">
+        <f t="shared" si="5"/>
+        <v>-12.51</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>89.087000000000003</v>
+      </c>
+      <c r="B175">
+        <v>-49.93</v>
+      </c>
+      <c r="C175">
+        <v>5.01</v>
+      </c>
+      <c r="E175">
+        <f t="shared" si="4"/>
+        <v>17.517724456018499</v>
+      </c>
+      <c r="F175">
+        <f t="shared" si="5"/>
+        <v>-12.51</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>89.183000000000007</v>
+      </c>
+      <c r="B176">
+        <v>-49.94</v>
+      </c>
+      <c r="C176">
+        <v>5.01</v>
+      </c>
+      <c r="E176">
+        <f t="shared" si="4"/>
+        <v>17.520239929908513</v>
+      </c>
+      <c r="F176">
+        <f t="shared" si="5"/>
+        <v>-12.51</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>89.239000000000004</v>
+      </c>
+      <c r="B177">
+        <v>-49.95</v>
+      </c>
+      <c r="C177">
+        <v>5.01</v>
+      </c>
+      <c r="E177">
+        <f t="shared" si="4"/>
+        <v>17.521699905441078</v>
+      </c>
+      <c r="F177">
+        <f t="shared" si="5"/>
+        <v>-12.51</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>89.262</v>
+      </c>
+      <c r="B178">
+        <v>-49.95</v>
+      </c>
+      <c r="C178">
+        <v>5.01</v>
+      </c>
+      <c r="E178">
+        <f t="shared" si="4"/>
+        <v>17.52229796166727</v>
+      </c>
+      <c r="F178">
+        <f t="shared" si="5"/>
+        <v>-12.51</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>89.274000000000001</v>
+      </c>
+      <c r="B179">
+        <v>-49.95</v>
+      </c>
+      <c r="C179">
+        <v>5.01</v>
+      </c>
+      <c r="E179">
+        <f t="shared" si="4"/>
+        <v>17.522609626537179</v>
+      </c>
+      <c r="F179">
+        <f t="shared" si="5"/>
+        <v>-12.51</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>89.344999999999999</v>
+      </c>
+      <c r="B180">
+        <v>-49.96</v>
+      </c>
+      <c r="C180">
+        <v>5.01</v>
+      </c>
+      <c r="E180">
+        <f t="shared" si="4"/>
+        <v>17.524448529261377</v>
+      </c>
+      <c r="F180">
+        <f t="shared" si="5"/>
+        <v>-12.51</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>89.364999999999995</v>
+      </c>
+      <c r="B181">
+        <v>-49.96</v>
+      </c>
+      <c r="C181">
+        <v>5</v>
+      </c>
+      <c r="E181">
+        <f t="shared" si="4"/>
+        <v>17.524964950297875</v>
+      </c>
+      <c r="F181">
+        <f t="shared" si="5"/>
+        <v>-12.52</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>89.400999999999996</v>
+      </c>
+      <c r="B182">
+        <v>-49.96</v>
+      </c>
+      <c r="C182">
+        <v>5</v>
+      </c>
+      <c r="E182">
+        <f t="shared" si="4"/>
+        <v>17.5258927580518</v>
+      </c>
+      <c r="F182">
+        <f t="shared" si="5"/>
+        <v>-12.530000000000001</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>89.421000000000006</v>
+      </c>
+      <c r="B183">
+        <v>-49.97</v>
+      </c>
+      <c r="C183">
+        <v>5</v>
+      </c>
+      <c r="E183">
+        <f t="shared" si="4"/>
+        <v>17.52640723443454</v>
+      </c>
+      <c r="F183">
+        <f t="shared" si="5"/>
+        <v>-12.530000000000001</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>89.462999999999994</v>
+      </c>
+      <c r="B184">
+        <v>-49.97</v>
+      </c>
+      <c r="C184">
+        <v>5</v>
+      </c>
+      <c r="E184">
+        <f t="shared" si="4"/>
+        <v>17.527485373824153</v>
+      </c>
+      <c r="F184">
+        <f t="shared" si="5"/>
+        <v>-12.530000000000001</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>89.503</v>
+      </c>
+      <c r="B185">
+        <v>-49.97</v>
+      </c>
+      <c r="C185">
+        <v>5</v>
+      </c>
+      <c r="E185">
+        <f t="shared" si="4"/>
+        <v>17.528509324933477</v>
+      </c>
+      <c r="F185">
+        <f t="shared" si="5"/>
+        <v>-12.530000000000001</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>89.552999999999997</v>
+      </c>
+      <c r="B186">
+        <v>-49.98</v>
+      </c>
+      <c r="C186">
+        <v>5</v>
+      </c>
+      <c r="E186">
+        <f t="shared" si="4"/>
+        <v>17.529785355484623</v>
+      </c>
+      <c r="F186">
+        <f t="shared" si="5"/>
+        <v>-12.530000000000001</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>89.558999999999997</v>
+      </c>
+      <c r="B187">
+        <v>-49.98</v>
+      </c>
+      <c r="C187">
+        <v>5</v>
+      </c>
+      <c r="E187">
+        <f t="shared" si="4"/>
+        <v>17.529938187296125</v>
+      </c>
+      <c r="F187">
+        <f t="shared" si="5"/>
+        <v>-12.530000000000001</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>89.584999999999994</v>
+      </c>
+      <c r="B188">
+        <v>-49.98</v>
+      </c>
+      <c r="C188">
+        <v>5</v>
+      </c>
+      <c r="E188">
+        <f t="shared" si="4"/>
+        <v>17.530599735723378</v>
+      </c>
+      <c r="F188">
+        <f t="shared" si="5"/>
+        <v>-12.530000000000001</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>89.634</v>
+      </c>
+      <c r="B189">
+        <v>-49.98</v>
+      </c>
+      <c r="C189">
+        <v>5</v>
+      </c>
+      <c r="E189">
+        <f t="shared" si="4"/>
+        <v>17.531843307307895</v>
+      </c>
+      <c r="F189">
+        <f t="shared" si="5"/>
+        <v>-12.530000000000001</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>89.659000000000006</v>
+      </c>
+      <c r="B190">
+        <v>-49.98</v>
+      </c>
+      <c r="C190">
+        <v>5</v>
+      </c>
+      <c r="E190">
+        <f t="shared" si="4"/>
+        <v>17.532476175181824</v>
+      </c>
+      <c r="F190">
+        <f t="shared" si="5"/>
+        <v>-12.530000000000001</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>89.721000000000004</v>
+      </c>
+      <c r="B191">
+        <v>-49.99</v>
+      </c>
+      <c r="C191">
+        <v>5</v>
+      </c>
+      <c r="E191">
+        <f t="shared" si="4"/>
+        <v>17.534041000047637</v>
+      </c>
+      <c r="F191">
+        <f t="shared" si="5"/>
+        <v>-12.530000000000001</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>89.727000000000004</v>
+      </c>
+      <c r="B192">
+        <v>-49.99</v>
+      </c>
+      <c r="C192">
+        <v>5</v>
+      </c>
+      <c r="E192">
+        <f t="shared" si="4"/>
+        <v>17.534192080116416</v>
+      </c>
+      <c r="F192">
+        <f t="shared" si="5"/>
+        <v>-12.530000000000001</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>89.731999999999999</v>
+      </c>
+      <c r="B193">
+        <v>-49.99</v>
+      </c>
+      <c r="C193">
+        <v>5</v>
+      </c>
+      <c r="E193">
+        <f t="shared" si="4"/>
+        <v>17.534317932368833</v>
+      </c>
+      <c r="F193">
+        <f t="shared" si="5"/>
+        <v>-12.530000000000001</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>89.738</v>
+      </c>
+      <c r="B194">
+        <v>-49.99</v>
+      </c>
+      <c r="C194">
+        <v>5</v>
+      </c>
+      <c r="E194">
+        <f t="shared" si="4"/>
+        <v>17.534468897704727</v>
+      </c>
+      <c r="F194">
+        <f t="shared" si="5"/>
+        <v>-12.530000000000001</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>89.802000000000007</v>
+      </c>
+      <c r="B195">
+        <v>-49.99</v>
+      </c>
+      <c r="C195">
+        <v>5</v>
+      </c>
+      <c r="E195">
+        <f t="shared" ref="E195:E201" si="6">SUMPRODUCT($H$2:$H$12*A195^$I$2:$I$12)</f>
+        <v>17.536075300282391</v>
+      </c>
+      <c r="F195">
+        <f t="shared" ref="F195:F201" si="7">C195-ROUND(E195,2)</f>
+        <v>-12.54</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>89.823999999999998</v>
+      </c>
+      <c r="B196">
+        <v>-49.99</v>
+      </c>
+      <c r="C196">
+        <v>5</v>
+      </c>
+      <c r="E196">
+        <f t="shared" si="6"/>
+        <v>17.536625856331774</v>
+      </c>
+      <c r="F196">
+        <f t="shared" si="7"/>
+        <v>-12.54</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>89.831999999999994</v>
+      </c>
+      <c r="B197">
+        <v>-49.99</v>
+      </c>
+      <c r="C197">
+        <v>5</v>
+      </c>
+      <c r="E197">
+        <f t="shared" si="6"/>
+        <v>17.536825849861636</v>
+      </c>
+      <c r="F197">
+        <f t="shared" si="7"/>
+        <v>-12.54</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>89.837000000000003</v>
+      </c>
+      <c r="B198">
+        <v>-49.99</v>
+      </c>
+      <c r="C198">
+        <v>5</v>
+      </c>
+      <c r="E198">
+        <f t="shared" si="6"/>
+        <v>17.53695078930075</v>
+      </c>
+      <c r="F198">
+        <f t="shared" si="7"/>
+        <v>-12.54</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>89.875</v>
+      </c>
+      <c r="B199">
+        <v>-50</v>
+      </c>
+      <c r="C199">
+        <v>5</v>
+      </c>
+      <c r="E199">
+        <f t="shared" si="6"/>
+        <v>17.537898908203122</v>
+      </c>
+      <c r="F199">
+        <f t="shared" si="7"/>
+        <v>-12.54</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>89.885999999999996</v>
+      </c>
+      <c r="B200">
+        <v>-50</v>
+      </c>
+      <c r="C200">
+        <v>5</v>
+      </c>
+      <c r="E200">
+        <f t="shared" si="6"/>
+        <v>17.538172894961544</v>
+      </c>
+      <c r="F200">
+        <f t="shared" si="7"/>
+        <v>-12.54</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>89.893000000000001</v>
+      </c>
+      <c r="B201">
+        <v>-50</v>
+      </c>
+      <c r="C201">
+        <v>5</v>
+      </c>
+      <c r="E201">
+        <f t="shared" si="6"/>
+        <v>17.538347140595043</v>
+      </c>
+      <c r="F201">
+        <f t="shared" si="7"/>
+        <v>-12.54</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:C201">
+    <sortCondition ref="A2:A201"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>